--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -69,7 +69,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="30">
     <fill>
       <patternFill/>
     </fill>
@@ -90,8 +90,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0B5B4"/>
-        <bgColor rgb="00E0B5B4"/>
+        <fgColor rgb="00C4DAB9"/>
+        <bgColor rgb="00C4DAB9"/>
       </patternFill>
     </fill>
     <fill>
@@ -102,158 +102,146 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFBFDF"/>
-        <bgColor rgb="00DFBFDF"/>
+        <fgColor rgb="00E4BAB6"/>
+        <bgColor rgb="00E4BAB6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEC7EF"/>
-        <bgColor rgb="00CEC7EF"/>
+        <fgColor rgb="00E4ECC3"/>
+        <bgColor rgb="00E4ECC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1C7CB"/>
-        <bgColor rgb="00C1C7CB"/>
+        <fgColor rgb="00DED2D3"/>
+        <bgColor rgb="00DED2D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8C9D7"/>
-        <bgColor rgb="00D8C9D7"/>
+        <fgColor rgb="00DBE2CC"/>
+        <bgColor rgb="00DBE2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEE7DF"/>
-        <bgColor rgb="00EEE7DF"/>
+        <fgColor rgb="00C5E5E3"/>
+        <bgColor rgb="00C5E5E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5DBF0"/>
-        <bgColor rgb="00D5DBF0"/>
+        <fgColor rgb="00D8ECD3"/>
+        <bgColor rgb="00D8ECD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2B6EC"/>
-        <bgColor rgb="00D2B6EC"/>
+        <fgColor rgb="00B9EAEA"/>
+        <bgColor rgb="00B9EAEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFCED1"/>
-        <bgColor rgb="00CFCED1"/>
+        <fgColor rgb="00DADEB9"/>
+        <bgColor rgb="00DADEB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BED7DC"/>
-        <bgColor rgb="00BED7DC"/>
+        <fgColor rgb="00C6E9B6"/>
+        <bgColor rgb="00C6E9B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7CEB8"/>
-        <bgColor rgb="00B7CEB8"/>
+        <fgColor rgb="00DEDDED"/>
+        <bgColor rgb="00DEDDED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6D5C9"/>
-        <bgColor rgb="00B6D5C9"/>
+        <fgColor rgb="00B7CCE9"/>
+        <bgColor rgb="00B7CCE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9D1E7"/>
-        <bgColor rgb="00E9D1E7"/>
+        <fgColor rgb="00B4F0EE"/>
+        <bgColor rgb="00B4F0EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8D7CD"/>
-        <bgColor rgb="00B8D7CD"/>
+        <fgColor rgb="00D5DFE5"/>
+        <bgColor rgb="00D5DFE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ECBCCB"/>
-        <bgColor rgb="00ECBCCB"/>
+        <fgColor rgb="00D7DDE5"/>
+        <bgColor rgb="00D7DDE5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFF0B4"/>
-        <bgColor rgb="00CFF0B4"/>
+        <fgColor rgb="00D9CFDA"/>
+        <bgColor rgb="00D9CFDA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDE4D6"/>
-        <bgColor rgb="00BDE4D6"/>
+        <fgColor rgb="00D8D3EF"/>
+        <bgColor rgb="00D8D3EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4E2E6"/>
-        <bgColor rgb="00B4E2E6"/>
+        <fgColor rgb="00DEC5B7"/>
+        <bgColor rgb="00DEC5B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFC3CB"/>
-        <bgColor rgb="00CFC3CB"/>
+        <fgColor rgb="00CBB9F0"/>
+        <bgColor rgb="00CBB9F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6D3E9"/>
-        <bgColor rgb="00B6D3E9"/>
+        <fgColor rgb="00C7DECA"/>
+        <bgColor rgb="00C7DECA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9EBB7"/>
-        <bgColor rgb="00C9EBB7"/>
+        <fgColor rgb="00D8D4B6"/>
+        <bgColor rgb="00D8D4B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BADBC1"/>
-        <bgColor rgb="00BADBC1"/>
+        <fgColor rgb="00BBDEEA"/>
+        <bgColor rgb="00BBDEEA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0C1CA"/>
-        <bgColor rgb="00E0C1CA"/>
+        <fgColor rgb="00EFC6D4"/>
+        <bgColor rgb="00EFC6D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFE2"/>
-        <bgColor rgb="00C6EFE2"/>
+        <fgColor rgb="00C6CEB9"/>
+        <bgColor rgb="00C6CEB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAECCF"/>
-        <bgColor rgb="00CAECCF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ECB9C4"/>
-        <bgColor rgb="00ECB9C4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0C7C5"/>
-        <bgColor rgb="00C0C7C5"/>
+        <fgColor rgb="00C1B6D3"/>
+        <bgColor rgb="00C1B6D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -369,12 +357,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,32 +1201,21 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+C205</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
@@ -1295,14 +1266,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -1311,17 +1275,13 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Lecture)
 DSAI-Sem1-POST
-C406</t>
+C101</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -1378,14 +1338,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -1394,17 +1347,13 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Introduction to Dsai
 (Tutorial)
 DSAI-Sem1-POST
-C408</t>
+C003</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -1456,19 +1405,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="P4:T4"/>
+  <mergeCells count="6">
+    <mergeCell ref="L4:T4"/>
     <mergeCell ref="U4"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="R6"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1849,14 +1792,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-B
-C407</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -1865,11 +1801,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -1880,12 +1812,12 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="9" t="inlineStr">
+      <c r="AF2" s="10" t="inlineStr">
         <is>
           <t>Artificial Intelligence
 (Lecture)
-CSE-Sem5-PRE-A
-C204</t>
+CSE-Sem5-POST-B
+C104</t>
         </is>
       </c>
       <c r="AG2" s="4" t="n"/>
@@ -1927,7 +1859,7 @@
           <t>Introduction to Dsai
 (Lecture)
 ECE-Sem1-POST
-C102</t>
+C408</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -2008,24 +1940,13 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-PRE-B
-C406</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
-      <c r="V4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
@@ -2035,24 +1956,13 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-PRE-A
-C408</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
@@ -2087,45 +1997,38 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-B
-C302</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
       <c r="R5" s="4" t="n"/>
-      <c r="S5" s="4" t="n"/>
+      <c r="S5" s="10" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+CSE-Sem5-POST-B
+C402</t>
+        </is>
+      </c>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AB5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-A
-C302</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
@@ -2134,11 +2037,7 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -2175,7 +2074,7 @@
           <t>Introduction to Dsai
 (Tutorial)
 ECE-Sem1-POST
-C104</t>
+C405</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -2191,13 +2090,24 @@
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
-      <c r="V6" s="4" t="n"/>
+      <c r="V6" s="10" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+CSE-Sem5-POST-B
+C303</t>
+        </is>
+      </c>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="AB6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -2227,24 +2137,18 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L2:T2"/>
+  <mergeCells count="12">
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4"/>
+    <mergeCell ref="S5:AA5"/>
     <mergeCell ref="AF2:AN2"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="L5:T5"/>
     <mergeCell ref="AO2"/>
     <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="AO5"/>
+    <mergeCell ref="AB6"/>
+    <mergeCell ref="AB5"/>
+    <mergeCell ref="R6"/>
     <mergeCell ref="K2"/>
-    <mergeCell ref="R6"/>
+    <mergeCell ref="V6:AA6"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2676,34 +2580,34 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="16" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Tutorial)
+ECE-Sem5-POST
+C402</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
-      <c r="V3" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
-(Tutorial)
-ECE-Sem5-PRE
-C204</t>
-        </is>
-      </c>
+      <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
@@ -2752,14 +2656,7 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
-(Lecture)
-ECE-Sem5-PRE
-C405</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
@@ -2768,11 +2665,7 @@
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
@@ -2810,7 +2703,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="16" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Lecture)
+ECE-Sem5-POST
+C102</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -2819,7 +2719,11 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -2871,7 +2775,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="16" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Lecture)
+ECE-Sem5-POST
+C405</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -2880,15 +2791,12 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
-(Lecture)
-ECE-Sem5-PRE
-C406</t>
-        </is>
-      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -2897,11 +2805,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -2939,12 +2843,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="P4:X4"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3334,24 +3238,13 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="18" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Tutorial)
-ECE-Sem5-PRE
-C402</t>
-        </is>
-      </c>
+      <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -3447,7 +3340,14 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Lecture)
+ECE-Sem5-POST
+C202</t>
+        </is>
+      </c>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -3456,7 +3356,11 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -3508,7 +3412,14 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Lecture)
+ECE-Sem5-POST
+C406</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -3517,7 +3428,11 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -3528,14 +3443,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="18" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Lecture)
-ECE-Sem5-PRE
-C303</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
@@ -3544,11 +3452,7 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -3580,13 +3484,24 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Tutorial)
+ECE-Sem5-POST
+C204</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -3600,14 +3515,7 @@
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="18" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Lecture)
-ECE-Sem5-PRE
-C304</t>
-        </is>
-      </c>
+      <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
@@ -3616,11 +3524,7 @@
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO6" s="4" t="n"/>
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
@@ -3638,12 +3542,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF6:AN6"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="AO6"/>
-    <mergeCell ref="AL2"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4013,14 +3917,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-B
-C407</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -4029,11 +3926,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -4044,31 +3937,31 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-A
-C204</t>
-        </is>
-      </c>
+      <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="4" t="n"/>
+      <c r="AM2" s="10" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+CSE-Sem5-POST-A
+C305</t>
+        </is>
+      </c>
       <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
-      <c r="AS2" s="4" t="n"/>
+      <c r="AS2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
@@ -4161,24 +4054,13 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-PRE-B
-C406</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
-      <c r="V4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
@@ -4188,12 +4070,12 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="9" t="inlineStr">
+      <c r="AF4" s="10" t="inlineStr">
         <is>
           <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-PRE-A
-C408</t>
+(Lecture)
+CSE-Sem5-POST-A
+C302</t>
         </is>
       </c>
       <c r="AG4" s="4" t="n"/>
@@ -4201,14 +4083,14 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="4" t="n"/>
+      <c r="AO4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -4240,14 +4122,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-PRE-B
-C302</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -4256,11 +4131,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -4271,12 +4142,12 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="9" t="inlineStr">
+      <c r="AF5" s="10" t="inlineStr">
         <is>
           <t>Artificial Intelligence
 (Lecture)
-CSE-Sem5-PRE-A
-C302</t>
+CSE-Sem5-POST-A
+C405</t>
         </is>
       </c>
       <c r="AG5" s="4" t="n"/>
@@ -4369,19 +4240,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="V4"/>
-    <mergeCell ref="AF2:AN2"/>
+  <mergeCells count="6">
+    <mergeCell ref="AO4"/>
     <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AO2"/>
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="U5"/>
+    <mergeCell ref="AS2"/>
     <mergeCell ref="AO5"/>
-    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="AF4:AN4"/>
+    <mergeCell ref="AM2:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4751,12 +4616,12 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="18" t="inlineStr">
+      <c r="L2" s="17" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 CSE-Sem3-POST-A
-C002</t>
+C003</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -4779,14 +4644,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -4795,11 +4653,7 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -4892,45 +4746,38 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="17" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+CSE-Sem3-POST-A
+L207</t>
+        </is>
+      </c>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
       <c r="AF4" s="4" t="n"/>
@@ -4939,19 +4786,8 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM4" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
@@ -4960,11 +4796,7 @@
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
@@ -5006,7 +4838,14 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
+      <c r="AC5" s="17" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -5015,7 +4854,11 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="4" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -5050,14 +4893,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -5066,11 +4902,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -5078,14 +4910,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -5094,11 +4919,7 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -5118,21 +4939,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="6">
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AV4"/>
-    <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="AL4"/>
+    <mergeCell ref="AL5"/>
+    <mergeCell ref="X4"/>
+    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="L4:W4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5553,14 +5366,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Lecture)
-ECE-Sem1-PRE
-C402</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -5569,11 +5375,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -5628,9 +5430,9 @@
       <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Problem Solving
-(Practical)
-ECE-Sem1-PRE
-L206</t>
+(Lecture)
+ECE-Sem1-POST
+C403</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -5641,14 +5443,14 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
-      <c r="N4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
@@ -5700,9 +5502,9 @@
       <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Problem Solving
-(Lecture)
-ECE-Sem1-PRE
-C203</t>
+(Practical)
+ECE-Sem1-POST
+L206</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -5713,19 +5515,8 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Practical)
-ECE-Sem1-POST
-L208</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="6" t="inlineStr">
         <is>
@@ -5785,7 +5576,7 @@
           <t>Problem Solving
 (Lecture)
 ECE-Sem1-POST
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -5847,15 +5638,11 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="N4"/>
-    <mergeCell ref="L5:M5"/>
+  <mergeCells count="6">
+    <mergeCell ref="K4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B4:J4"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="N5"/>
   </mergeCells>
@@ -6217,7 +6004,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Practical)
+ECE-Sem3-POST
+L208</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -6229,7 +6023,11 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -6278,7 +6076,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Lecture)
+ECE-Sem3-POST
+C304</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -6287,7 +6092,11 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -6339,7 +6148,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>Semiconductor Devices
 (Lecture)
@@ -6411,14 +6220,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="19" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Practical)
-ECE-Sem3-POST
-L107</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -6430,11 +6232,7 @@
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
@@ -6483,14 +6281,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="19" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Lecture)
-ECE-Sem3-POST
-C204</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -6499,11 +6290,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -6551,12 +6338,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="K4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="N5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6987,45 +6774,34 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-CSE-Sem5-PRE-B
-C404</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
+      <c r="O3" s="19" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-B
+C404</t>
+        </is>
+      </c>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
-      <c r="V3" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-CSE-Sem5-PRE-A
-C203</t>
-        </is>
-      </c>
+      <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="4" t="n"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
@@ -7074,17 +6850,17 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-A
-C404</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
+      <c r="S4" s="19" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+CSE-Sem5-POST-B
+C408</t>
+        </is>
+      </c>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
@@ -7101,14 +6877,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-B
-C104</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -7117,11 +6886,7 @@
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -7214,45 +6979,38 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="19" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-B
+C304</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-A
-C202</t>
-        </is>
-      </c>
+      <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-B
-C205</t>
-        </is>
-      </c>
+      <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
@@ -7261,11 +7019,7 @@
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO6" s="4" t="n"/>
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
@@ -7282,19 +7036,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P4:X4"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="AO4"/>
-    <mergeCell ref="S6:AA6"/>
+  <mergeCells count="6">
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="X3"/>
     <mergeCell ref="Y4"/>
-    <mergeCell ref="AF6:AN6"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="AO6"/>
-    <mergeCell ref="AF4:AN4"/>
-    <mergeCell ref="R3"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="O3:W3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7664,14 +7412,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-PRE-A
-C003</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -7680,11 +7421,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -7692,14 +7429,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -7708,18 +7438,25 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
+      <c r="AM2" s="20" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
-      <c r="AS2" s="4" t="n"/>
+      <c r="AS2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
@@ -7737,7 +7474,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="20" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -7746,15 +7490,12 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -7763,11 +7504,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -7775,14 +7512,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
@@ -7791,11 +7521,7 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
@@ -7891,38 +7617,16 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="S5" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -7930,38 +7634,16 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem3-PRE-A
-C003</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ5" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
+      <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -7986,45 +7668,23 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="21" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -8035,7 +7695,14 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
+      <c r="AC6" s="20" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem3-POST-A
+C003</t>
+        </is>
+      </c>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -8044,7 +7711,11 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="4" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -8064,27 +7735,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="R5"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="AC3:AK3"/>
+  <mergeCells count="6">
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="AS2"/>
+    <mergeCell ref="AL6"/>
+    <mergeCell ref="AM2:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8478,14 +8135,7 @@
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
-      <c r="AJ2" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Practical)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
@@ -8497,11 +8147,7 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="4" t="n"/>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -8584,7 +8230,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="22" t="inlineStr">
+      <c r="I4" s="21" t="inlineStr">
         <is>
           <t>Digital Design
 (Practical)
@@ -8612,14 +8258,7 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Practical)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
@@ -8631,11 +8270,7 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
@@ -8660,7 +8295,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Digital Design
 (Lecture)
@@ -8681,14 +8316,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -8697,23 +8325,12 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -8722,11 +8339,7 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -8754,7 +8367,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="22" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>Digital Design
 (Lecture)
@@ -8775,14 +8388,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -8791,23 +8397,12 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="22" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
@@ -8816,11 +8411,7 @@
       <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
@@ -8843,21 +8434,9 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="Z4:AK4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AJ2:AU2"/>
-    <mergeCell ref="AV2"/>
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="AI6"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:T4"/>
     <mergeCell ref="B6:J6"/>
@@ -9221,14 +8800,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -9237,19 +8809,8 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -9258,11 +8819,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -9270,14 +8827,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -9286,12 +8836,15 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
+      <c r="AM2" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
@@ -9300,7 +8853,11 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="4" t="n"/>
+      <c r="AV2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -9315,14 +8872,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -9331,19 +8881,8 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -9352,11 +8891,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -9364,14 +8899,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
@@ -9380,12 +8908,15 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
+      <c r="AM3" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
@@ -9394,7 +8925,11 @@
       <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
-      <c r="AV3" s="4" t="n"/>
+      <c r="AV3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
       <c r="AY3" s="4" t="n"/>
@@ -9409,63 +8944,30 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
-      <c r="S4" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
@@ -9480,17 +8982,35 @@
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
-      <c r="AN4" s="4" t="n"/>
+      <c r="AN4" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
       <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="4" t="n"/>
+      <c r="AT4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
-      <c r="AX4" s="4" t="n"/>
+      <c r="AX4" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AY4" s="4" t="n"/>
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
@@ -9513,7 +9033,14 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -9522,7 +9049,11 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -9574,7 +9105,14 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -9583,7 +9121,11 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -9620,25 +9162,18 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="11">
+    <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AM3:AU3"/>
+    <mergeCell ref="AV3"/>
+    <mergeCell ref="AT4"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AV2"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AN4:AS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9998,14 +9533,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -10014,19 +9542,8 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -10035,11 +9552,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -10047,14 +9560,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -10063,11 +9569,7 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -10078,13 +9580,24 @@
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
-      <c r="AW2" s="4" t="n"/>
+      <c r="AW2" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="4" t="n"/>
+      <c r="BC2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -10092,14 +9605,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -10108,11 +9614,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -10164,48 +9666,37 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="17" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
-CSE-Sem3-PRE-A
+CSE-Sem3-POST-B
 C002</t>
         </is>
       </c>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -10213,14 +9704,7 @@
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
       <c r="AF4" s="4" t="n"/>
@@ -10229,19 +9713,8 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM4" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
@@ -10250,11 +9723,7 @@
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
@@ -10293,7 +9762,14 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -10302,7 +9778,11 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="4" t="n"/>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -10340,12 +9820,12 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="18" t="inlineStr">
+      <c r="L6" s="17" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-PRE-A
-C002</t>
+(Practical)
+CSE-Sem3-POST-B
+L208</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -10356,26 +9836,26 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="18" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
+      <c r="AB6" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
 (Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+COMBINED
+C004</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -10383,12 +9863,12 @@
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
+      <c r="AK6" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -10408,27 +9888,17 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="AV4"/>
-    <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="10">
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="AI5"/>
+    <mergeCell ref="AW2:BB2"/>
+    <mergeCell ref="AB6:AJ6"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="L6:W6"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="X6"/>
+    <mergeCell ref="AK6"/>
+    <mergeCell ref="BC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10788,14 +10258,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="23" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Practical)
-ECE-Sem3-POST
-L106</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -10807,11 +10270,7 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -10860,14 +10319,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="23" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Lecture)
-ECE-Sem3-POST
-C408</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -10876,12 +10328,15 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="22" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Practical)
+ECE-Sem3-POST
+L308</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -10893,7 +10348,11 @@
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="4" t="n"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
@@ -10993,7 +10452,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Lecture)
+ECE-Sem3-POST
+C404</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -11002,7 +10468,11 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -11054,7 +10524,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Lecture)
+ECE-Sem3-POST
+C407</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -11063,15 +10540,12 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="23" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Lecture)
-ECE-Sem3-POST
-C102</t>
-        </is>
-      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -11080,11 +10554,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -11122,12 +10592,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="N2"/>
+    <mergeCell ref="X3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="L3:W3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11497,14 +10967,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="24" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -11513,23 +10976,12 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="24" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -11538,11 +10990,7 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
@@ -11702,14 +11150,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="24" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-PRE-A
-C003</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -11718,20 +11159,16 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="24" t="inlineStr">
+      <c r="Z5" s="23" t="inlineStr">
         <is>
           <t>English Language and communication
 (Lecture)
-CSE-Sem1-PRE-B
+CSE-Sem1-POST-A
 C003</t>
         </is>
       </c>
@@ -11751,7 +11188,14 @@
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
-      <c r="AM5" s="4" t="n"/>
+      <c r="AM5" s="23" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
@@ -11760,7 +11204,11 @@
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
-      <c r="AV5" s="4" t="n"/>
+      <c r="AV5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
       <c r="AY5" s="4" t="n"/>
@@ -11785,14 +11233,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="24" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -11801,20 +11242,16 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="24" t="inlineStr">
+      <c r="Z6" s="23" t="inlineStr">
         <is>
           <t>English Language and communication
 (Lecture)
-CSE-Sem1-POST-B
+CSE-Sem1-POST-A
 C002</t>
         </is>
       </c>
@@ -11834,7 +11271,14 @@
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
-      <c r="AM6" s="4" t="n"/>
+      <c r="AM6" s="23" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
       <c r="AP6" s="4" t="n"/>
@@ -11843,7 +11287,11 @@
       <c r="AS6" s="4" t="n"/>
       <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
-      <c r="AV6" s="4" t="n"/>
+      <c r="AV6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW6" s="4" t="n"/>
       <c r="AX6" s="4" t="n"/>
       <c r="AY6" s="4" t="n"/>
@@ -11853,19 +11301,15 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="8">
     <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="AI5"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AM6:AU6"/>
     <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AV6"/>
     <mergeCell ref="AI6"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="AM5:AU5"/>
+    <mergeCell ref="AV5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12225,14 +11669,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="25" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -12241,12 +11678,8 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="25" t="inlineStr">
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="24" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -12308,14 +11741,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -12324,12 +11750,8 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="25" t="inlineStr">
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="24" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -12354,20 +11776,24 @@
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Z3" s="24" t="inlineStr">
+        <is>
+          <t>Statistics
+(Tutorial)
+DSAI-Sem1-POST
+C101</t>
+        </is>
+      </c>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="26" t="inlineStr">
-        <is>
-          <t>Statistical Programming
-(Practical)
-DSAI-Sem3-PRE
-L207</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="4" t="n"/>
+      <c r="AF3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
@@ -12376,11 +11802,7 @@
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
-      <c r="AO3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
@@ -12402,24 +11824,13 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="25" t="inlineStr">
-        <is>
-          <t>Statistics
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -12437,7 +11848,7 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="25" t="inlineStr">
+      <c r="Z4" s="24" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -12485,12 +11896,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="25" t="inlineStr">
+      <c r="B5" s="24" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
 DSAI-Sem1-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -12506,24 +11917,13 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L5" s="26" t="inlineStr">
-        <is>
-          <t>Statistical Programming
-(Tutorial)
-DSAI-Sem3-PRE
-C101</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
       <c r="U5" s="4" t="n"/>
@@ -12568,12 +11968,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
 DSAI-Sem1-POST
-C302</t>
+C104</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -12635,27 +12035,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="R5"/>
-    <mergeCell ref="K3"/>
+  <mergeCells count="12">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="AF3"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AF4"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="U2"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AF4"/>
-    <mergeCell ref="AO3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="AC3:AN3"/>
+    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13015,7 +12407,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="25" t="inlineStr">
+        <is>
+          <t>Computer Communication
+(Practical)
+DSAI-Sem5-POST
+L307</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -13025,16 +12424,13 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="27" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Practical)
-DSAI-Sem5-PRE
-L208</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -13044,11 +12440,7 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
@@ -13087,7 +12479,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="25" t="inlineStr">
+        <is>
+          <t>Computer Communication
+(Lecture)
+DSAI-Sem5-POST
+C104</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -13096,15 +12495,12 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="27" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Lecture)
-DSAI-Sem5-PRE
-C204</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -13113,11 +12509,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -13159,7 +12551,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="25" t="inlineStr">
+        <is>
+          <t>Computer Communication
+(Lecture)
+DSAI-Sem5-POST
+C204</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -13168,7 +12567,11 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -13220,24 +12623,28 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="25" t="inlineStr">
+        <is>
+          <t>Computer Communication
+(Tutorial)
+DSAI-Sem5-POST
+C003</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="27" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Lecture)
-DSAI-Sem5-PRE
-C204</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -13246,11 +12653,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -13302,24 +12705,13 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="27" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Tutorial)
-DSAI-Sem5-PRE
-C403</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -13360,14 +12752,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="U3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13727,7 +13119,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="26" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing
+(Practical)
+ECE-Sem5-POST
+L106</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -13737,16 +13136,13 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="28" t="inlineStr">
-        <is>
-          <t>Digital Signal Processing
-(Practical)
-ECE-Sem5-PRE
-L308</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -13756,11 +13152,7 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
@@ -13799,7 +13191,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="26" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing
+(Lecture)
+ECE-Sem5-POST
+C003</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -13808,15 +13207,12 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="28" t="inlineStr">
-        <is>
-          <t>Digital Signal Processing
-(Lecture)
-ECE-Sem5-PRE
-C407</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -13825,11 +13221,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -13871,7 +13263,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="26" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing
+(Lecture)
+ECE-Sem5-POST
+C202</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -13880,7 +13279,11 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -13942,14 +13345,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="28" t="inlineStr">
-        <is>
-          <t>Digital Signal Processing
-(Lecture)
-ECE-Sem5-PRE
-C003</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -13958,11 +13354,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -14061,12 +13453,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="U3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14497,7 +13889,14 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+DSAI-Sem5-POST
+C406</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -14506,7 +13905,11 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -14517,14 +13920,7 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem5-PRE
-C405</t>
-        </is>
-      </c>
+      <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
@@ -14533,11 +13929,7 @@
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
-      <c r="AO3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
@@ -14559,7 +13951,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="27" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Lecture)
+DSAI-Sem3-POST
+C302</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -14568,19 +13967,16 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="29" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Lecture)
-DSAI-Sem3-PRE
-C303</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
@@ -14589,25 +13985,10 @@
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Z4" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-DSAI-Sem5-PRE
-L206</t>
-        </is>
-      </c>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
-      <c r="AB4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
@@ -14642,12 +14023,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="29" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>Data Handling
 (Practical)
 DSAI-Sem3-POST
-L206</t>
+L208</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -14669,7 +14050,14 @@
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
+      <c r="R5" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+DSAI-Sem5-POST
+C202</t>
+        </is>
+      </c>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
       <c r="U5" s="4" t="n"/>
@@ -14678,16 +14066,13 @@
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
-      <c r="AA5" s="4" t="n"/>
+      <c r="AA5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="29" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Lecture)
-DSAI-Sem3-PRE
-C405</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -14696,11 +14081,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -14725,12 +14106,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
 DSAI-Sem3-POST
-C203</t>
+C403</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -14746,17 +14127,17 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L6" s="29" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Practical)
-DSAI-Sem3-PRE
-L307</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
+      <c r="O6" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+DSAI-Sem5-POST
+L308</t>
+        </is>
+      </c>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
@@ -14765,26 +14146,15 @@
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="n"/>
+      <c r="AA6" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="Y6" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem5-PRE
-C402</t>
-        </is>
-      </c>
-      <c r="Z6" s="4" t="n"/>
-      <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -14814,23 +14184,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="P4:X4"/>
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="L6:W6"/>
+  <mergeCells count="12">
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="AB4"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="X6"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="AO3"/>
+    <mergeCell ref="O6:Z6"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AA6"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="R5:Z5"/>
+    <mergeCell ref="B4:J4"/>
     <mergeCell ref="K6"/>
+    <mergeCell ref="AA5"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="N5"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15190,67 +14556,45 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Tutorial)
-ECE-Sem3-PRE
-C102</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I2" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
+      <c r="O2" s="28" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Lecture)
+ECE-Sem3-POST
+C302</t>
+        </is>
+      </c>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="31" t="inlineStr">
+      <c r="AC2" s="29" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -15295,14 +14639,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -15311,19 +14648,8 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -15332,11 +14658,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -15344,7 +14666,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="31" t="inlineStr">
+      <c r="AC3" s="29" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -15389,25 +14711,49 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="28" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Lecture)
+ECE-Sem3-POST
+C303</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="I4" s="31" t="inlineStr">
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
+      <c r="AB4" s="4" t="n"/>
+      <c r="AC4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AE4" s="4" t="n"/>
+      <c r="AF4" s="4" t="n"/>
+      <c r="AG4" s="29" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Tutorial)
@@ -15415,67 +14761,14 @@
 C004</t>
         </is>
       </c>
-      <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n"/>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="31" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Z4" s="4" t="n"/>
-      <c r="AA4" s="4" t="n"/>
-      <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="30" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-ECE-Sem3-POST
-C002</t>
-        </is>
-      </c>
-      <c r="AD4" s="4" t="n"/>
-      <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="4" t="n"/>
-      <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM4" s="30" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-ECE-Sem3-PRE
-C405</t>
         </is>
       </c>
       <c r="AN4" s="4" t="n"/>
@@ -15486,11 +14779,7 @@
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
@@ -15518,14 +14807,7 @@
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
-      <c r="O5" s="30" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-ECE-Sem3-POST
-C406</t>
-        </is>
-      </c>
+      <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
       <c r="R5" s="4" t="n"/>
@@ -15534,22 +14816,29 @@
       <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
+      <c r="AC5" s="28" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Tutorial)
+ECE-Sem3-POST
+C402</t>
+        </is>
+      </c>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="4" t="n"/>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -15604,14 +14893,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="30" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-ECE-Sem3-PRE
-C203</t>
-        </is>
-      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -15620,11 +14902,7 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -15644,35 +14922,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="AV4"/>
-    <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="I4:N4"/>
+  <mergeCells count="12">
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="AI5"/>
+    <mergeCell ref="AM4"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AC5:AH5"/>
+    <mergeCell ref="AL3"/>
+    <mergeCell ref="X2"/>
+    <mergeCell ref="AC3:AK3"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="X5"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="O2:W2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16046,8 +15308,8 @@
         <is>
           <t>Problem Solving with python
 (Lecture)
-CSE-Sem1-PRE-A
-C003</t>
+CSE-Sem1-POST-B
+C002</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -16067,30 +15329,30 @@
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="4" t="n"/>
+      <c r="AF2" s="19" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+CSE-Sem5-POST-A
+C406</t>
+        </is>
+      </c>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -16125,59 +15387,41 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="n"/>
+      <c r="S3" s="19" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-A
+C003</t>
+        </is>
+      </c>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="V3" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-CSE-Sem5-PRE-A
-C203</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
@@ -16219,14 +15463,7 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-A
-C404</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
@@ -16235,38 +15472,34 @@
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+CSE-Sem1-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-B
-C104</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -16366,12 +15599,12 @@
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="20" t="inlineStr">
+      <c r="S6" s="19" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Lecture)
-CSE-Sem5-PRE-A
-C202</t>
+CSE-Sem5-POST-A
+C101</t>
         </is>
       </c>
       <c r="T6" s="4" t="n"/>
@@ -16390,14 +15623,7 @@
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="20" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-PRE-B
-C205</t>
-        </is>
-      </c>
+      <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
@@ -16406,11 +15632,7 @@
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO6" s="4" t="n"/>
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
@@ -16427,24 +15649,17 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="10">
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="P4:X4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AO4"/>
+    <mergeCell ref="AB3"/>
+    <mergeCell ref="AF2:AK2"/>
     <mergeCell ref="S6:AA6"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="AF6:AN6"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AF4:AN4"/>
+    <mergeCell ref="AI4"/>
     <mergeCell ref="AB6"/>
+    <mergeCell ref="S3:AA3"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="AO6"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="AL2"/>
+    <mergeCell ref="Z4:AH4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16814,14 +16029,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-A
-C003</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -16830,23 +16038,12 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -16855,11 +16052,7 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
@@ -16901,7 +16094,7 @@
         <is>
           <t>Problem Solving with python
 (Lecture)
-CSE-Sem1-PRE-A
+CSE-Sem1-POST-A
 C002</t>
         </is>
       </c>
@@ -16922,14 +16115,7 @@
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -16938,26 +16124,18 @@
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ3" s="32" t="inlineStr">
+      <c r="AI3" s="4" t="n"/>
+      <c r="AJ3" s="4" t="n"/>
+      <c r="AK3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
+      <c r="AM3" s="30" t="inlineStr">
         <is>
           <t>Software design
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
-      <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AM3" s="4" t="n"/>
+(Practical)
+CSE-Sem3-POST-A
+L206</t>
+        </is>
+      </c>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
@@ -16969,7 +16147,11 @@
       <c r="AV3" s="4" t="n"/>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
-      <c r="AY3" s="4" t="n"/>
+      <c r="AY3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
       <c r="BB3" s="4" t="n"/>
@@ -17005,7 +16187,14 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+CSE-Sem1-POST-A
+C003</t>
+        </is>
+      </c>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
@@ -17014,7 +16203,11 @@
       <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
@@ -17042,14 +16235,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -17058,16 +16244,12 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="32" t="inlineStr">
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="30" t="inlineStr">
         <is>
           <t>Software design
 (Lecture)
-CSE-Sem3-PRE-A
+CSE-Sem3-POST-A
 C002</t>
         </is>
       </c>
@@ -17084,32 +16266,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="V5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -17118,11 +16282,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -17147,14 +16307,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -17163,35 +16316,31 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="30" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
@@ -17225,29 +16374,17 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="AI3"/>
+  <mergeCells count="10">
+    <mergeCell ref="AM3:AX3"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AY3"/>
+    <mergeCell ref="AI4"/>
+    <mergeCell ref="U3"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="V5:W5"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="X6"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="X5"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="L3:T3"/>
+    <mergeCell ref="Z4:AH4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17607,14 +16744,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -17623,11 +16753,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
@@ -17665,13 +16791,24 @@
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
-      <c r="AW2" s="4" t="n"/>
+      <c r="AW2" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="4" t="n"/>
+      <c r="BC2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -17679,14 +16816,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -17695,11 +16825,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -17751,24 +16877,13 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -17847,7 +16962,14 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -17856,7 +16978,11 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="4" t="n"/>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -17910,7 +17036,14 @@
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="AB6" s="8" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -17919,7 +17052,11 @@
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="4" t="n"/>
+      <c r="AK6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
@@ -17941,12 +17078,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="AI5"/>
+    <mergeCell ref="AW2:BB2"/>
+    <mergeCell ref="AB6:AJ6"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="AK6"/>
+    <mergeCell ref="BC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18306,12 +17443,12 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="16" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Machine Learning
-(Lecture)
-DSAI-Sem3-PRE
-C104</t>
+(Practical)
+DSAI-Sem3-POST
+L105</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -18322,14 +17459,14 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -18344,14 +17481,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-DSAI-Sem3-POST
-L206</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -18363,11 +17493,7 @@
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
@@ -18389,12 +17515,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
 DSAI-Sem3-POST
-C104</t>
+C403</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -18440,14 +17566,7 @@
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
-      <c r="AP3" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-DSAI-Sem3-PRE
-L208</t>
-        </is>
-      </c>
+      <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
       <c r="AS3" s="4" t="n"/>
@@ -18459,11 +17578,7 @@
       <c r="AY3" s="4" t="n"/>
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
-      <c r="BB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BB3" s="4" t="n"/>
       <c r="BC3" s="4" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
@@ -18604,12 +17719,12 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="16" t="inlineStr">
+      <c r="L6" s="15" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
 DSAI-Sem3-POST
-C403</t>
+C203</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -18632,14 +17747,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem3-PRE
-C406</t>
-        </is>
-      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -18648,11 +17756,7 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -18672,19 +17776,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AP3:BA3"/>
+  <mergeCells count="6">
     <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AC2:AN2"/>
-    <mergeCell ref="AO2"/>
     <mergeCell ref="U6"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="BB3"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19105,7 +18203,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="30" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+CSE-Sem3-POST-B
+L206</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -19115,27 +18220,20 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
-      <c r="N3" s="4" t="n"/>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -19143,14 +18241,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-PRE-B
-C003</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
@@ -19159,11 +18250,7 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
@@ -19249,14 +18336,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -19265,17 +18345,13 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="32" t="inlineStr">
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="30" t="inlineStr">
         <is>
           <t>Software design
 (Lecture)
-CSE-Sem3-PRE-A
-C002</t>
+CSE-Sem3-POST-B
+C003</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -19291,32 +18367,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="V5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -19325,11 +18383,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -19354,14 +18408,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -19370,22 +18417,11 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="32" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
@@ -19394,11 +18430,7 @@
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
@@ -19432,23 +18464,11 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="X6"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="U3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="U5"/>
     <mergeCell ref="L5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="AC5:AK5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="X5"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19821,7 +18841,14 @@
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
+      <c r="O2" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+DSAI-Sem5-POST
+C406</t>
+        </is>
+      </c>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
@@ -19830,46 +18857,28 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-DSAI-Sem3-PRE
-C305</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ2" s="10" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-DSAI-Sem5-PRE
-C002</t>
-        </is>
-      </c>
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
@@ -19901,13 +18910,24 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+DSAI-Sem3-POST
+C202</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
@@ -19918,24 +18938,13 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-DSAI-Sem3-POST
-C002</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
@@ -19973,7 +18982,14 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+DSAI-Sem3-POST
+C405</t>
+        </is>
+      </c>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -19982,7 +18998,11 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -19990,48 +19010,37 @@
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-DSAI-Sem3-POST
-C408</t>
-        </is>
-      </c>
+      <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="4" t="n"/>
+      <c r="AF4" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+DSAI-Sem5-POST
+C204</t>
+        </is>
+      </c>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="6" t="inlineStr">
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
+      <c r="AN4" s="4" t="n"/>
+      <c r="AO4" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="AM4" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-DSAI-Sem3-PRE
-C403</t>
-        </is>
-      </c>
-      <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
@@ -20059,12 +19068,12 @@
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
-      <c r="O5" s="9" t="inlineStr">
+      <c r="O5" s="10" t="inlineStr">
         <is>
           <t>Artificial Intelligence
 (Lecture)
 DSAI-Sem3-POST
-C403</t>
+C304</t>
         </is>
       </c>
       <c r="P5" s="4" t="n"/>
@@ -20087,28 +19096,14 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="10" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-DSAI-Sem5-PRE
-C402</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
-      <c r="AM5" s="9" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-DSAI-Sem3-PRE
-C104</t>
-        </is>
-      </c>
+      <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
@@ -20117,11 +19112,7 @@
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
-      <c r="AV5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
       <c r="AY5" s="4" t="n"/>
@@ -20136,13 +19127,24 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Tutorial)
+DSAI-Sem5-POST
+C202</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
@@ -20192,22 +19194,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
+    <mergeCell ref="L4:T4"/>
     <mergeCell ref="O5:W5"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="AO4"/>
+    <mergeCell ref="X2"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AF4:AN4"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="O2:W2"/>
     <mergeCell ref="X5"/>
-    <mergeCell ref="AV4"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="AO2"/>
-    <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="AL4"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="AC4:AK4"/>
-    <mergeCell ref="AV5"/>
-    <mergeCell ref="AC3:AH3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20567,7 +19566,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+DSAI-Sem1-POST
+L206</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -20577,51 +19583,37 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-A
-C003</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
+      <c r="R2" s="12" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem5-POST-A
+C101</t>
+        </is>
+      </c>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
+      <c r="AA2" s="6" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="V2" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-CSE-Sem5-PRE-A
-L105</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C003</t>
-        </is>
-      </c>
-      <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
@@ -20629,29 +19621,18 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ2" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
 (Practical)
-CSE-Sem5-PRE-B
-L106</t>
+CSE-Sem1-POST-A
+L308</t>
         </is>
       </c>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-DSAI-Sem1-PRE
-L308</t>
-        </is>
-      </c>
+      <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
@@ -20660,14 +19641,14 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="4" t="n"/>
+      <c r="AV2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
-      <c r="AY2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
@@ -20679,7 +19660,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+DSAI-Sem1-POST
+C404</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -20688,15 +19676,12 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-A
-C002</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -20705,23 +19690,12 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-PRE-B
-C002</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -20730,56 +19704,38 @@
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AJ3" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-B
-C408</t>
+      <c r="AI3" s="4" t="n"/>
+      <c r="AJ3" s="11" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+CSE-Sem1-POST-B
+L107</t>
         </is>
       </c>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-DSAI-Sem1-POST
-C202</t>
-        </is>
-      </c>
+      <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
       <c r="AS3" s="4" t="n"/>
-      <c r="AT3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-DSAI-Sem1-PRE
-C205</t>
-        </is>
-      </c>
+      <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
-      <c r="AV3" s="4" t="n"/>
+      <c r="AV3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
       <c r="AY3" s="4" t="n"/>
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
       <c r="BB3" s="4" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="4" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -20792,7 +19748,7 @@
           <t>Problem Solving with python
 (Lecture)
 DSAI-Sem1-POST
-C305</t>
+C405</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -20811,7 +19767,14 @@
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
+      <c r="O4" s="12" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+CSE-Sem5-POST-A
+L208</t>
+        </is>
+      </c>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
@@ -20823,7 +19786,11 @@
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
@@ -20859,14 +19826,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-DSAI-Sem1-PRE
-C205</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -20875,17 +19835,13 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="12" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
-CSE-Sem5-PRE-A
-C404</t>
+CSE-Sem5-POST-A
+C305</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -20911,14 +19867,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-B
-C204</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
@@ -20927,11 +19876,7 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -20967,8 +19912,8 @@
         <is>
           <t>Computer Networks
 (Tutorial)
-CSE-Sem5-PRE-A
-C303</t>
+CSE-Sem5-POST-A
+C104</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -20984,24 +19929,13 @@
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
-      <c r="V6" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem5-PRE-B
-C408</t>
-        </is>
-      </c>
+      <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -21031,36 +19965,25 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AI3"/>
+  <mergeCells count="18">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="AA4"/>
+    <mergeCell ref="AV3"/>
     <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AJ2:AU2"/>
+    <mergeCell ref="AA2"/>
+    <mergeCell ref="AV2"/>
     <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="V6:AA6"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="AJ3:AU3"/>
+    <mergeCell ref="L6:Q6"/>
     <mergeCell ref="K4"/>
-    <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="BC3"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="AY2"/>
-    <mergeCell ref="AT3:BB3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21433,7 +20356,14 @@
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
+      <c r="O2" s="13" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing
+(Lecture)
+ECE-Sem5-POST
+C303</t>
+        </is>
+      </c>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
@@ -21442,7 +20372,11 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
@@ -21498,7 +20432,14 @@
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
-      <c r="S3" s="4" t="n"/>
+      <c r="S3" s="13" t="inlineStr">
+        <is>
+          <t>Happiness &amp; Wellbeing
+(Lecture)
+ECE-Sem5-POST
+C403</t>
+        </is>
+      </c>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
@@ -21507,18 +20448,15 @@
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AB3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="13" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing
-(Lecture)
-ECE-Sem5-PRE
-C407</t>
-        </is>
-      </c>
+      <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
@@ -21527,11 +20465,7 @@
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
-      <c r="AO3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
@@ -21583,14 +20517,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="13" t="inlineStr">
-        <is>
-          <t>Happiness &amp; Wellbeing
-(Lecture)
-ECE-Sem5-PRE
-C302</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -21599,11 +20526,7 @@
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -21743,10 +20666,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AO4"/>
-    <mergeCell ref="AO3"/>
-    <mergeCell ref="AF4:AN4"/>
-    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AB3"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="S3:AA3"/>
+    <mergeCell ref="X2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22127,14 +21050,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L2" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -22143,23 +21059,12 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -22168,11 +21073,7 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
@@ -22221,14 +21122,7 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="L3" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -22237,23 +21131,12 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -22262,11 +21145,7 @@
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
@@ -22319,24 +21198,13 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
-      <c r="V4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
@@ -22353,24 +21221,13 @@
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="14" t="inlineStr">
-        <is>
-          <t>Probability
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
-      <c r="AS4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
@@ -22398,14 +21255,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="15" t="inlineStr">
-        <is>
-          <t>Random Processes
-(Lecture)
-ECE-Sem3-PRE
-C406</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -22414,11 +21264,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -22470,24 +21316,13 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="15" t="inlineStr">
-        <is>
-          <t>Random Processes
-(Tutorial)
-ECE-Sem3-PRE
-C104</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -22527,28 +21362,12 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="AI2"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z2:AH2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AM4:AR4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="K2"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="V4"/>
-    <mergeCell ref="AS4"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L3:T3"/>
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22916,32 +21735,14 @@
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Tutorial)
-ECE-Sem3-PRE
-C204</t>
-        </is>
-      </c>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
-      <c r="O2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="P2" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-ECE-Sem3-POST
-C101</t>
-        </is>
-      </c>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
@@ -22949,16 +21750,19 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="4" t="n"/>
+      <c r="AC2" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -22967,7 +21771,11 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -23002,14 +21810,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-ECE-Sem3-PRE
-C204</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -23018,11 +21819,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -23030,13 +21827,24 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="4" t="n"/>
+      <c r="AC3" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Tutorial)
+ECE-Sem3-POST
+C408</t>
+        </is>
+      </c>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="4" t="n"/>
+      <c r="AI3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
@@ -23152,14 +21960,7 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="16" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-ECE-Sem3-PRE
-C205</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -23168,11 +21969,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -23224,12 +22021,12 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="16" t="inlineStr">
+      <c r="AC6" s="15" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
 ECE-Sem3-POST
-C203</t>
+C204</t>
         </is>
       </c>
       <c r="AD6" s="4" t="n"/>
@@ -23264,17 +22061,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="6">
     <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AI3"/>
     <mergeCell ref="AL6"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="AL2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23647,9 +22440,9 @@
       <c r="L2" s="12" t="inlineStr">
         <is>
           <t>Computer Networks
-(Practical)
-CSE-Sem5-PRE-A
-L105</t>
+(Lecture)
+CSE-Sem5-POST-B
+C304</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -23660,14 +22453,14 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
@@ -23675,14 +22468,7 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-CSE-Sem5-PRE-B
-L106</t>
-        </is>
-      </c>
+      <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
@@ -23694,11 +22480,7 @@
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
-      <c r="AR2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AR2" s="4" t="n"/>
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
@@ -23717,7 +22499,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+CSE-Sem5-POST-B
+L208</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -23727,27 +22516,20 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-A
-C304</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
-      <c r="N3" s="4" t="n"/>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -23758,14 +22540,7 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-B
-C408</t>
-        </is>
-      </c>
+      <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
@@ -23774,11 +22549,7 @@
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
-      <c r="AO3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
@@ -23807,7 +22578,14 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem5-POST-B
+C101</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -23816,7 +22594,11 @@
       <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
+      <c r="R4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
@@ -23874,9 +22656,9 @@
       <c r="L5" s="12" t="inlineStr">
         <is>
           <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-A
-C404</t>
+(Tutorial)
+CSE-Sem5-POST-B
+C204</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -23884,14 +22666,14 @@
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
+      <c r="R5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -23902,14 +22684,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-PRE-B
-C204</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
@@ -23918,11 +22693,7 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -23954,45 +22725,23 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem5-PRE-A
-C303</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
-      <c r="V6" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem5-PRE-B
-C408</t>
-        </is>
-      </c>
+      <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -24022,23 +22771,15 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AF2:AQ2"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AO3"/>
-    <mergeCell ref="AR2"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="L2:W2"/>
+  <mergeCells count="8">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="R5"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="I4:Q4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -9,35 +9,37 @@
   <sheets>
     <sheet name="Abdul Wahid" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Anand B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Animesh" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Animesh Chaturvedi" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Animesh Roy" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Animesh Chaturvedi" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Animesh Roy" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Anushree Kini" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Chandrika Kamath" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Chinmayananda" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Deepak K T" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Dibyajyothi" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Girish Revadigar" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Jagadish D.N" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Jagdish R.B" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Krishnendu" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Malay" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Manjunath" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Pankaj Kumar" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Pavan Kumar" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Prabhu Prasad B M" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Prakash Pawar" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Pramod" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Rajesh Kumar" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Rajesh N S" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Ramesh Athe" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Shirshendu Layek" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Sibasankar Padhy" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Siddharth" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Somen B" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Sunil C K" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Sunil P V" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Utkarsh K" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Vivekraj" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Ganesh" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Girish Revadigar" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Jagadish D.N" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Jagdish R.B" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Krishnendu" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Malay" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Manjunath" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Pankaj Kumar" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Pavan Kumar" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Prabhu Prasad B M" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Prakash Pawar" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Pramod" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Rajesh Kumar" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Rajesh N S" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Ramesh Athe" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Shirshendu Layek" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Sibasankar Padhy" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Siddharth" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Somen B" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Sunil C K" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Sunil P V" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Suvadip Hazra" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Utkarsh K" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Vivekraj" sheetId="33" state="visible" r:id="rId33"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -69,7 +71,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill/>
     </fill>
@@ -90,8 +92,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4DAB9"/>
-        <bgColor rgb="00C4DAB9"/>
+        <fgColor rgb="00D4B5D7"/>
+        <bgColor rgb="00D4B5D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -102,146 +104,158 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4BAB6"/>
-        <bgColor rgb="00E4BAB6"/>
+        <fgColor rgb="00DAE4B5"/>
+        <bgColor rgb="00DAE4B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4ECC3"/>
-        <bgColor rgb="00E4ECC3"/>
+        <fgColor rgb="00C9C4DB"/>
+        <bgColor rgb="00C9C4DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DED2D3"/>
-        <bgColor rgb="00DED2D3"/>
+        <fgColor rgb="00EEE6D0"/>
+        <bgColor rgb="00EEE6D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DBE2CC"/>
-        <bgColor rgb="00DBE2CC"/>
+        <fgColor rgb="00C5BCEE"/>
+        <bgColor rgb="00C5BCEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C5E5E3"/>
-        <bgColor rgb="00C5E5E3"/>
+        <fgColor rgb="00EEC3F0"/>
+        <bgColor rgb="00EEC3F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8ECD3"/>
-        <bgColor rgb="00D8ECD3"/>
+        <fgColor rgb="00EDD8D0"/>
+        <bgColor rgb="00EDD8D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9EAEA"/>
-        <bgColor rgb="00B9EAEA"/>
+        <fgColor rgb="00C6B8CF"/>
+        <bgColor rgb="00C6B8CF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DADEB9"/>
-        <bgColor rgb="00DADEB9"/>
+        <fgColor rgb="00B8E6E5"/>
+        <bgColor rgb="00B8E6E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6E9B6"/>
-        <bgColor rgb="00C6E9B6"/>
+        <fgColor rgb="00BDC5E3"/>
+        <bgColor rgb="00BDC5E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEDDED"/>
-        <bgColor rgb="00DEDDED"/>
+        <fgColor rgb="00D2BBBF"/>
+        <bgColor rgb="00D2BBBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7CCE9"/>
-        <bgColor rgb="00B7CCE9"/>
+        <fgColor rgb="00E0DFE9"/>
+        <bgColor rgb="00E0DFE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4F0EE"/>
-        <bgColor rgb="00B4F0EE"/>
+        <fgColor rgb="00C6E8BB"/>
+        <bgColor rgb="00C6E8BB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5DFE5"/>
-        <bgColor rgb="00D5DFE5"/>
+        <fgColor rgb="00C4B4C9"/>
+        <bgColor rgb="00C4B4C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7DDE5"/>
-        <bgColor rgb="00D7DDE5"/>
+        <fgColor rgb="00C0DDE9"/>
+        <bgColor rgb="00C0DDE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9CFDA"/>
-        <bgColor rgb="00D9CFDA"/>
+        <fgColor rgb="00D4CDDF"/>
+        <bgColor rgb="00D4CDDF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8D3EF"/>
-        <bgColor rgb="00D8D3EF"/>
+        <fgColor rgb="00C5E2E2"/>
+        <bgColor rgb="00C5E2E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEC5B7"/>
-        <bgColor rgb="00DEC5B7"/>
+        <fgColor rgb="00F0B4D8"/>
+        <bgColor rgb="00F0B4D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBB9F0"/>
-        <bgColor rgb="00CBB9F0"/>
+        <fgColor rgb="00DCD7BE"/>
+        <bgColor rgb="00DCD7BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7DECA"/>
-        <bgColor rgb="00C7DECA"/>
+        <fgColor rgb="00D4C9F0"/>
+        <bgColor rgb="00D4C9F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8D4B6"/>
-        <bgColor rgb="00D8D4B6"/>
+        <fgColor rgb="00EEC3DB"/>
+        <bgColor rgb="00EEC3DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBDEEA"/>
-        <bgColor rgb="00BBDEEA"/>
+        <fgColor rgb="00E2EFD2"/>
+        <bgColor rgb="00E2EFD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFC6D4"/>
-        <bgColor rgb="00EFC6D4"/>
+        <fgColor rgb="00E0D2E5"/>
+        <bgColor rgb="00E0D2E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6CEB9"/>
-        <bgColor rgb="00C6CEB9"/>
+        <fgColor rgb="00D9D3BC"/>
+        <bgColor rgb="00D9D3BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B6D3"/>
-        <bgColor rgb="00C1B6D3"/>
+        <fgColor rgb="00BAC0CD"/>
+        <bgColor rgb="00BAC0CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5BFC8"/>
+        <bgColor rgb="00C5BFC8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7C0BF"/>
+        <bgColor rgb="00C7C0BF"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -357,6 +371,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1201,30 +1221,30 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Tutorial)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-DSAI-Sem1-POST
-C205</t>
-        </is>
-      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -1266,7 +1286,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -1275,15 +1302,12 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-DSAI-Sem1-POST
-C101</t>
-        </is>
-      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -1292,11 +1316,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -1338,7 +1358,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -1347,25 +1374,18 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Tutorial)
-DSAI-Sem1-POST
-C003</t>
-        </is>
-      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -1406,12 +1426,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1771,14 +1791,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-ECE-Sem1-POST
-C104</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -1787,11 +1800,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
@@ -1812,14 +1821,7 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-POST-B
-C104</t>
-        </is>
-      </c>
+      <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
@@ -1828,11 +1830,7 @@
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
-      <c r="AO2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
@@ -1854,14 +1852,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Lecture)
-ECE-Sem1-POST
-C408</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -1870,11 +1861,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -1964,13 +1951,24 @@
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
-      <c r="AN4" s="4" t="n"/>
+      <c r="AN4" s="16" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
       <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="4" t="n"/>
+      <c r="AT4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
@@ -1997,34 +1995,34 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="16" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
       <c r="R5" s="4" t="n"/>
-      <c r="S5" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-POST-B
-C402</t>
-        </is>
-      </c>
+      <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
-      <c r="AB5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
@@ -2069,12 +2067,12 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Dsai
-(Tutorial)
-ECE-Sem1-POST
-C405</t>
+      <c r="L6" s="16" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)
+(Lecture)
+COMBINED
+C004</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -2082,32 +2080,21 @@
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-POST-B
-C303</t>
-        </is>
-      </c>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -2137,19 +2124,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="S5:AA5"/>
-    <mergeCell ref="AF2:AN2"/>
-    <mergeCell ref="AO2"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="AB5"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="V6:AA6"/>
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="6">
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AT4"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="AN4:AS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2580,31 +2561,31 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="16" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
-(Tutorial)
-ECE-Sem5-POST
-C402</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="S3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+CSE-Sem5-POST-B
+C405</t>
+        </is>
+      </c>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
-      <c r="Y3" s="4" t="n"/>
+      <c r="Y3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
@@ -2642,17 +2623,35 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
+(Tutorial)
+ECE-Sem1-POST
+C404</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+CSE-Sem5-POST-B
+C407</t>
+        </is>
+      </c>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -2661,7 +2660,11 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -2703,12 +2706,12 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
 (Lecture)
-ECE-Sem5-POST
-C102</t>
+ECE-Sem1-POST
+C404</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -2775,12 +2778,12 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
-        <is>
-          <t>Introduction to VLSI Design
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Dsai
 (Lecture)
-ECE-Sem5-POST
-C405</t>
+ECE-Sem1-POST
+C404</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -2799,7 +2802,14 @@
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
+      <c r="O6" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+CSE-Sem5-POST-B
+C406</t>
+        </is>
+      </c>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
@@ -2808,7 +2818,11 @@
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
@@ -2842,12 +2856,18 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="L4:T4"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="R3"/>
-    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="X6"/>
+    <mergeCell ref="Y3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="S3:X3"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="B6:J6"/>
+    <mergeCell ref="H4"/>
     <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3279,13 +3299,24 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Tutorial)
+ECE-Sem5-POST
+C407</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
@@ -3340,14 +3371,7 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Lecture)
-ECE-Sem5-POST
-C202</t>
-        </is>
-      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -3356,11 +3380,7 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -3402,7 +3422,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Lecture)
+ECE-Sem5-POST
+C408</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -3411,15 +3438,12 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Lecture)
-ECE-Sem5-POST
-C406</t>
-        </is>
-      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -3428,11 +3452,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -3474,7 +3494,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Introduction to VLSI Design
+(Lecture)
+ECE-Sem5-POST
+C408</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -3483,25 +3510,18 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="17" t="inlineStr">
-        <is>
-          <t>Introduction to Algorithms
-(Tutorial)
-ECE-Sem5-POST
-C204</t>
-        </is>
-      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -3542,12 +3562,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3944,24 +3964,13 @@
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-CSE-Sem5-POST-A
-C305</t>
-        </is>
-      </c>
+      <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
@@ -4050,7 +4059,14 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="4" t="n"/>
+      <c r="L4" s="18" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Lecture)
+ECE-Sem5-POST
+C408</t>
+        </is>
+      </c>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -4059,7 +4075,11 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -4070,14 +4090,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-POST-A
-C302</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -4086,11 +4099,7 @@
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -4122,7 +4131,14 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Lecture)
+ECE-Sem5-POST
+C408</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -4131,7 +4147,11 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -4142,14 +4162,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-CSE-Sem5-POST-A
-C405</t>
-        </is>
-      </c>
+      <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
@@ -4158,11 +4171,7 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -4194,13 +4203,24 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="18" t="inlineStr">
+        <is>
+          <t>Introduction to Algorithms
+(Tutorial)
+ECE-Sem5-POST
+C408</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -4241,12 +4261,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AO4"/>
-    <mergeCell ref="AF5:AN5"/>
-    <mergeCell ref="AS2"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="AF4:AN4"/>
-    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4616,12 +4636,12 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="17" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
 (Lecture)
-CSE-Sem3-POST-A
-C003</t>
+CSE-Sem5-POST-A
+C405</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -4678,13 +4698,24 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+CSE-Sem5-POST-A
+C408</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
@@ -4749,14 +4780,7 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="17" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-CSE-Sem3-POST-A
-L207</t>
-        </is>
-      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -4768,11 +4792,7 @@
       <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
-      <c r="X4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
@@ -4821,7 +4841,14 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+CSE-Sem5-POST-A
+C405</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -4830,7 +4857,11 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -4838,14 +4869,7 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="17" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -4854,11 +4878,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -4940,12 +4960,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="X4"/>
-    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="L5:T5"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="L4:W4"/>
+    <mergeCell ref="U5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5315,7 +5335,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="18" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+CSE-Sem3-POST-A
+L106</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -5327,7 +5354,11 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
+      <c r="X2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
@@ -5427,14 +5458,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Lecture)
-ECE-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -5443,11 +5467,7 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -5499,14 +5519,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Practical)
-ECE-Sem1-POST
-L206</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -5518,11 +5531,7 @@
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
@@ -5571,14 +5580,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving
-(Lecture)
-ECE-Sem1-POST
-C203</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -5587,11 +5589,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -5638,13 +5636,9 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="N5"/>
+  <mergeCells count="2">
+    <mergeCell ref="L2:W2"/>
+    <mergeCell ref="X2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6004,14 +5998,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Practical)
-ECE-Sem3-POST
-L208</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -6023,11 +6010,7 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -6039,7 +6022,14 @@
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving
+(Practical)
+ECE-Sem1-POST
+L106</t>
+        </is>
+      </c>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -6051,7 +6041,11 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -6076,12 +6070,12 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="18" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving
 (Lecture)
-ECE-Sem3-POST
-C304</t>
+ECE-Sem1-POST
+C404</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -6148,14 +6142,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="18" t="inlineStr">
-        <is>
-          <t>Semiconductor Devices
-(Lecture)
-ECE-Sem3-POST
-C408</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -6164,11 +6151,7 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -6230,7 +6213,14 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving
+(Lecture)
+ECE-Sem1-POST
+C404</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -6239,7 +6229,11 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -6338,12 +6332,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="K4"/>
+    <mergeCell ref="Z2:AK2"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="AL2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6713,7 +6707,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="19" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Lecture)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -6722,7 +6723,11 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -6774,30 +6779,30 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="19" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Lecture)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
-      <c r="O3" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-POST-B
-C404</t>
-        </is>
-      </c>
+      <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
@@ -6843,7 +6848,14 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
+      <c r="I4" s="19" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices
+(Practical)
+ECE-Sem3-POST
+L105</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -6853,24 +6865,17 @@
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
-      <c r="S4" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-CSE-Sem5-POST-B
-C408</t>
-        </is>
-      </c>
+      <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
@@ -6979,14 +6984,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-POST-B
-C304</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -6995,11 +6993,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -7037,12 +7031,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="X3"/>
-    <mergeCell ref="Y4"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="I4:T4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7439,24 +7433,13 @@
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="20" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
@@ -7476,10 +7459,10 @@
       </c>
       <c r="B3" s="20" t="inlineStr">
         <is>
-          <t>Computer Networks
+          <t>Statistics for CS
 (Lecture)
-CSE-Sem3-POST-A
-C002</t>
+CSE-Sem5-POST-B
+C407</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -7546,7 +7529,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-B
+C408</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -7555,7 +7545,11 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -7607,13 +7601,24 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+CSE-Sem5-POST-B
+C406</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
@@ -7695,14 +7700,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="20" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem3-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -7711,11 +7709,7 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -7736,12 +7730,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="H5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AS2"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8162,13 +8156,24 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="4" t="n"/>
-      <c r="H3" s="4" t="n"/>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
@@ -8230,14 +8235,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="21" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Practical)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -8249,11 +8247,7 @@
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
@@ -8295,14 +8289,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="21" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -8311,11 +8298,7 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -8367,14 +8350,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="21" t="inlineStr">
-        <is>
-          <t>Digital Design
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -8383,11 +8359,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -8434,13 +8406,9 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8982,28 +8950,14 @@
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
-      <c r="AN4" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
       <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="4" t="n"/>
-      <c r="AW4" s="4" t="n"/>
-      <c r="AX4" s="7" t="inlineStr">
+      <c r="AT4" s="4" t="n"/>
+      <c r="AU4" s="7" t="inlineStr">
         <is>
           <t>Differential Equations
 (Tutorial)
@@ -9011,9 +8965,16 @@
 C004</t>
         </is>
       </c>
+      <c r="AV4" s="4" t="n"/>
+      <c r="AW4" s="4" t="n"/>
+      <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
       <c r="AZ4" s="4" t="n"/>
-      <c r="BA4" s="4" t="n"/>
+      <c r="BA4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BB4" s="4" t="n"/>
       <c r="BC4" s="4" t="n"/>
     </row>
@@ -9033,14 +8994,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -9049,11 +9003,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -9061,7 +9011,14 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
+      <c r="AC5" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -9070,7 +9027,11 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="4" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -9105,14 +9066,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="7" t="inlineStr">
-        <is>
-          <t>Differential Equations
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -9121,11 +9075,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -9133,7 +9083,14 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
+      <c r="AC6" s="7" t="inlineStr">
+        <is>
+          <t>Differential Equations
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -9142,7 +9099,11 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="4" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -9162,18 +9123,17 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="AL5"/>
     <mergeCell ref="AM3:AU3"/>
+    <mergeCell ref="BA4"/>
     <mergeCell ref="AV3"/>
-    <mergeCell ref="AT4"/>
-    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="AV2"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AN4:AS4"/>
+    <mergeCell ref="AL6"/>
+    <mergeCell ref="AU4:AZ4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9580,24 +9540,13 @@
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
-      <c r="AW2" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC2" s="4" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -9673,17 +9622,17 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
+      <c r="I4" s="22" t="inlineStr">
+        <is>
+          <t>Digital Design
+(Practical)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="17" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Lecture)
-CSE-Sem3-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -9738,7 +9687,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>Digital Design
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -9747,7 +9703,11 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -9762,14 +9722,7 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -9778,11 +9731,7 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -9810,7 +9759,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>Digital Design
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -9819,15 +9775,12 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="17" t="inlineStr">
-        <is>
-          <t>Design &amp; Analysis of Algorithms
-(Practical)
-CSE-Sem3-POST-B
-L208</t>
-        </is>
-      </c>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -9839,22 +9792,11 @@
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -9863,11 +9805,7 @@
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
@@ -9888,17 +9826,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AW2:BB2"/>
-    <mergeCell ref="AB6:AJ6"/>
+  <mergeCells count="6">
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="L6:W6"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="X6"/>
-    <mergeCell ref="AK6"/>
-    <mergeCell ref="BC2"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10268,7 +10202,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="18" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Lecture)
+CSE-Sem3-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -10277,7 +10218,11 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -10329,14 +10274,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="22" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Practical)
-ECE-Sem3-POST
-L308</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -10348,11 +10286,7 @@
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
@@ -10452,14 +10386,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="22" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Lecture)
-ECE-Sem3-POST
-C404</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -10468,11 +10395,7 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -10490,7 +10413,14 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
+      <c r="AC5" s="18" t="inlineStr">
+        <is>
+          <t>Design &amp; Analysis of Algorithms
+(Practical)
+CSE-Sem3-POST-B
+L105</t>
+        </is>
+      </c>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -10502,7 +10432,11 @@
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
-      <c r="AO5" s="4" t="n"/>
+      <c r="AO5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
@@ -10524,14 +10458,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="22" t="inlineStr">
-        <is>
-          <t>Analog Electronics
-(Lecture)
-ECE-Sem3-POST
-C407</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -10540,11 +10467,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -10591,13 +10514,11 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="X3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L3:W3"/>
+  <mergeCells count="4">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="AO5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10984,7 +10905,14 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="4" t="n"/>
+      <c r="AC2" s="23" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Lecture)
+ECE-Sem3-POST
+C404</t>
+        </is>
+      </c>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -10993,7 +10921,11 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -11140,7 +11072,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Practical)
+ECE-Sem3-POST
+L106</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -11152,7 +11091,11 @@
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
+      <c r="N5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
@@ -11164,14 +11107,7 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="23" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -11180,22 +11116,11 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
-      <c r="AM5" s="23" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
@@ -11204,11 +11129,7 @@
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
-      <c r="AV5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
       <c r="AY5" s="4" t="n"/>
@@ -11223,7 +11144,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="23" t="inlineStr">
+        <is>
+          <t>Analog Electronics
+(Lecture)
+ECE-Sem3-POST
+C406</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -11232,7 +11160,11 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -11247,14 +11179,7 @@
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="23" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
@@ -11263,22 +11188,11 @@
       <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
-      <c r="AM6" s="23" t="inlineStr">
-        <is>
-          <t>English Language and communication
-(Lecture)
-CSE-Sem1-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
       <c r="AP6" s="4" t="n"/>
@@ -11287,11 +11201,7 @@
       <c r="AS6" s="4" t="n"/>
       <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
-      <c r="AV6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV6" s="4" t="n"/>
       <c r="AW6" s="4" t="n"/>
       <c r="AX6" s="4" t="n"/>
       <c r="AY6" s="4" t="n"/>
@@ -11301,15 +11211,13 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AM6:AU6"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="AV6"/>
-    <mergeCell ref="AI6"/>
-    <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="AV5"/>
+  <mergeCells count="6">
+    <mergeCell ref="AL2"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="N5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11679,14 +11587,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="24" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -11695,11 +11596,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -11751,14 +11648,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="24" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -11767,21 +11657,17 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="24" t="inlineStr">
         <is>
-          <t>Statistics
-(Tutorial)
-DSAI-Sem1-POST
-C101</t>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-A
+C002</t>
         </is>
       </c>
       <c r="AA3" s="4" t="n"/>
@@ -11789,18 +11675,25 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="4" t="n"/>
+      <c r="AI3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="4" t="n"/>
+      <c r="AM3" s="24" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
@@ -11809,7 +11702,11 @@
       <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
-      <c r="AV3" s="4" t="n"/>
+      <c r="AV3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
       <c r="AY3" s="4" t="n"/>
@@ -11848,24 +11745,13 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="24" t="inlineStr">
-        <is>
-          <t>Statistics
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -11896,14 +11782,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="24" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-DSAI-Sem1-POST
-C202</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -11912,11 +11791,7 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
@@ -11931,7 +11806,14 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Z5" s="24" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -11940,11 +11822,22 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="4" t="n"/>
+      <c r="AI5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
-      <c r="AM5" s="4" t="n"/>
+      <c r="AM5" s="24" t="inlineStr">
+        <is>
+          <t>English Language and communication
+(Lecture)
+CSE-Sem1-POST-B
+C002</t>
+        </is>
+      </c>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
@@ -11953,7 +11846,11 @@
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
-      <c r="AV5" s="4" t="n"/>
+      <c r="AV5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
       <c r="AY5" s="4" t="n"/>
@@ -11968,14 +11865,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="24" t="inlineStr">
-        <is>
-          <t>Statistics
-(Lecture)
-DSAI-Sem1-POST
-C104</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -11984,11 +11874,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -12035,19 +11921,15 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AF3"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AF4"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="K5"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6"/>
+  <mergeCells count="8">
+    <mergeCell ref="AI5"/>
+    <mergeCell ref="AM3:AU3"/>
+    <mergeCell ref="AV3"/>
+    <mergeCell ref="AI3"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="AM5:AU5"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="AV5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12407,14 +12289,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="25" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Practical)
-DSAI-Sem5-POST
-L307</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -12424,25 +12299,39 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="25" t="inlineStr">
+        <is>
+          <t>Statistics
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="25" t="inlineStr">
+        <is>
+          <t>Statistics
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -12451,7 +12340,11 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="4" t="n"/>
+      <c r="AI2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
@@ -12479,14 +12372,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Lecture)
-DSAI-Sem5-POST
-C104</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -12495,12 +12381,15 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="25" t="inlineStr">
+        <is>
+          <t>Statistics
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -12509,12 +12398,23 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="4" t="n"/>
+      <c r="Z3" s="25" t="inlineStr">
+        <is>
+          <t>Statistics
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -12523,7 +12423,11 @@
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="4" t="n"/>
+      <c r="AI3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
@@ -12553,10 +12457,10 @@
       </c>
       <c r="B4" s="25" t="inlineStr">
         <is>
-          <t>Computer Communication
-(Lecture)
-DSAI-Sem5-POST
-C204</t>
+          <t>Statistics
+(Tutorial)
+DSAI-Sem1-POST
+C403</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -12564,14 +12468,14 @@
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -12586,13 +12490,24 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="25" t="inlineStr">
+        <is>
+          <t>Statistics
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="4" t="n"/>
+      <c r="AF4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -12623,24 +12538,13 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="25" t="inlineStr">
-        <is>
-          <t>Computer Communication
-(Tutorial)
-DSAI-Sem5-POST
-C003</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
@@ -12751,15 +12655,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="K4"/>
+  <mergeCells count="12">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="Z2:AH2"/>
+    <mergeCell ref="AI3"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AF4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="AI2"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13121,10 +13029,10 @@
       </c>
       <c r="B2" s="26" t="inlineStr">
         <is>
-          <t>Digital Signal Processing
+          <t>Computer Communication
 (Practical)
-ECE-Sem5-POST
-L106</t>
+DSAI-Sem5-POST
+L107</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -13193,10 +13101,10 @@
       </c>
       <c r="B3" s="26" t="inlineStr">
         <is>
-          <t>Digital Signal Processing
+          <t>Computer Communication
 (Lecture)
-ECE-Sem5-POST
-C003</t>
+DSAI-Sem5-POST
+C101</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -13265,10 +13173,10 @@
       </c>
       <c r="B4" s="26" t="inlineStr">
         <is>
-          <t>Digital Signal Processing
+          <t>Computer Communication
 (Lecture)
-ECE-Sem5-POST
-C202</t>
+DSAI-Sem5-POST
+C101</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -13335,13 +13243,24 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="26" t="inlineStr">
+        <is>
+          <t>Computer Communication
+(Tutorial)
+DSAI-Sem5-POST
+C407</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
@@ -13452,10 +13371,12 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="H5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="N2"/>
     <mergeCell ref="K4"/>
@@ -13818,7 +13739,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing
+(Practical)
+ECE-Sem5-POST
+L206</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -13830,7 +13758,11 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -13879,7 +13811,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="27" t="inlineStr">
+        <is>
+          <t>Digital Signal Processing
+(Lecture)
+ECE-Sem5-POST
+C102</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -13888,15 +13827,12 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem5-POST
-C406</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -13905,11 +13841,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -13953,10 +13885,10 @@
       </c>
       <c r="B4" s="27" t="inlineStr">
         <is>
-          <t>Data Handling
+          <t>Digital Signal Processing
 (Lecture)
-DSAI-Sem3-POST
-C302</t>
+ECE-Sem5-POST
+C102</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -14023,14 +13955,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Practical)
-DSAI-Sem3-POST
-L208</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -14042,22 +13967,11 @@
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
-      <c r="N5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem5-POST
-C202</t>
-        </is>
-      </c>
+      <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
       <c r="U5" s="4" t="n"/>
@@ -14066,11 +13980,7 @@
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
-      <c r="AA5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
@@ -14106,14 +14016,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>Data Handling
-(Lecture)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -14122,22 +14025,11 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-DSAI-Sem5-POST
-L308</t>
-        </is>
-      </c>
+      <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
@@ -14149,11 +14041,7 @@
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
-      <c r="AA6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
@@ -14184,18 +14072,12 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="O6:Z6"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AA6"/>
-    <mergeCell ref="N5"/>
-    <mergeCell ref="R5:Z5"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="AA5"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14569,12 +14451,12 @@
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
-      <c r="O2" s="28" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
+      <c r="O2" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
 (Lecture)
-ECE-Sem3-POST
-C302</t>
+DSAI-Sem5-POST
+C406</t>
         </is>
       </c>
       <c r="P2" s="4" t="n"/>
@@ -14594,14 +14476,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="29" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -14610,11 +14485,7 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -14666,14 +14537,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="29" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
@@ -14682,11 +14546,7 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
@@ -14711,7 +14571,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Lecture)
+DSAI-Sem3-POST
+C405</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -14720,57 +14587,50 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
-      <c r="L4" s="28" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Lecture)
-ECE-Sem3-POST
-C303</t>
-        </is>
-      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
+      <c r="O4" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+DSAI-Sem5-POST
+L106</t>
+        </is>
+      </c>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
-      <c r="U4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
-      <c r="AA4" s="4" t="n"/>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
       <c r="AF4" s="4" t="n"/>
-      <c r="AG4" s="29" t="inlineStr">
-        <is>
-          <t>Multivariable Calculus
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
@@ -14794,7 +14654,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="28" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Practical)
+DSAI-Sem3-POST
+L105</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -14806,7 +14673,11 @@
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
+      <c r="N5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
@@ -14821,24 +14692,13 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="28" t="inlineStr">
-        <is>
-          <t>Signals &amp; Systems
-(Tutorial)
-ECE-Sem3-POST
-C402</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -14866,7 +14726,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>Data Handling
+(Lecture)
+DSAI-Sem3-POST
+C405</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -14875,11 +14742,22 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
+      <c r="O6" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+DSAI-Sem5-POST
+C407</t>
+        </is>
+      </c>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
@@ -14888,7 +14766,11 @@
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
+      <c r="X6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
@@ -14923,18 +14805,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AM4"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AC5:AH5"/>
-    <mergeCell ref="AL3"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="AA4"/>
+    <mergeCell ref="X6"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B4:J4"/>
     <mergeCell ref="X2"/>
-    <mergeCell ref="AC3:AK3"/>
-    <mergeCell ref="AL2"/>
-    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
     <mergeCell ref="O2:W2"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15294,7 +15176,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Lecture)
+ECE-Sem3-POST
+C404</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -15303,15 +15192,12 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -15320,11 +15206,7 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -15332,17 +15214,17 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="4" t="n"/>
+      <c r="AC2" s="30" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Tutorial)
-CSE-Sem5-POST-A
-C406</t>
-        </is>
-      </c>
+      <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
@@ -15377,7 +15259,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Lecture)
+ECE-Sem3-POST
+C406</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -15386,7 +15275,11 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -15394,14 +15287,7 @@
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
-      <c r="S3" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-POST-A
-C003</t>
-        </is>
-      </c>
+      <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
@@ -15410,12 +15296,15 @@
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
-      <c r="AB3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="AC3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
+      <c r="AC3" s="30" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus
+(Lecture)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
       <c r="AF3" s="4" t="n"/>
@@ -15424,7 +15313,11 @@
       <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="4" t="n"/>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
@@ -15449,13 +15342,24 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems
+(Tutorial)
+ECE-Sem3-POST
+C406</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
-      <c r="H4" s="4" t="n"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -15473,31 +15377,31 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-CSE-Sem1-POST-B
-C002</t>
-        </is>
-      </c>
+      <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
       <c r="AF4" s="4" t="n"/>
-      <c r="AG4" s="4" t="n"/>
+      <c r="AG4" s="30" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus
+(Tutorial)
+COMBINED
+C004</t>
+        </is>
+      </c>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="4" t="n"/>
+      <c r="AM4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
@@ -15599,14 +15503,7 @@
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="19" t="inlineStr">
-        <is>
-          <t>Statistics for CS
-(Lecture)
-CSE-Sem5-POST-A
-C101</t>
-        </is>
-      </c>
+      <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
@@ -15615,11 +15512,7 @@
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
@@ -15649,17 +15542,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="AB3"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="S6:AA6"/>
-    <mergeCell ref="AI4"/>
-    <mergeCell ref="AB6"/>
-    <mergeCell ref="S3:AA3"/>
-    <mergeCell ref="U2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="AM4"/>
+    <mergeCell ref="AC2:AK2"/>
+    <mergeCell ref="AL3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="AG4:AL4"/>
+    <mergeCell ref="AC3:AK3"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16090,12 +15985,12 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="L3" s="10" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
-CSE-Sem1-POST-A
-C002</t>
+CSE-Sem1-POST-B
+C003</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -16128,14 +16023,7 @@
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="30" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-CSE-Sem3-POST-A
-L206</t>
-        </is>
-      </c>
+      <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
       <c r="AP3" s="4" t="n"/>
@@ -16147,11 +16035,7 @@
       <c r="AV3" s="4" t="n"/>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
-      <c r="AY3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY3" s="4" t="n"/>
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
       <c r="BB3" s="4" t="n"/>
@@ -16163,7 +16047,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="20" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-A
+C407</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -16172,7 +16063,11 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -16187,11 +16082,11 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="11" t="inlineStr">
+      <c r="Z4" s="10" t="inlineStr">
         <is>
           <t>Problem Solving with python
 (Lecture)
-CSE-Sem1-POST-A
+CSE-Sem1-POST-B
 C003</t>
         </is>
       </c>
@@ -16235,7 +16130,14 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n"/>
+      <c r="B5" s="20" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Lecture)
+CSE-Sem5-POST-A
+C405</t>
+        </is>
+      </c>
       <c r="C5" s="4" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -16244,15 +16146,12 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="30" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -16261,11 +16160,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -16307,24 +16202,28 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>Statistics for CS
+(Tutorial)
+CSE-Sem5-POST-A
+C407</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="30" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-A
-C002</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -16333,11 +16232,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -16375,16 +16270,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AY3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H6"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="U6"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K5"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16744,7 +16639,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+DSAI-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -16753,7 +16655,11 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
@@ -16791,24 +16697,13 @@
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
-      <c r="AW2" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Tutorial)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC2" s="4" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -16816,7 +16711,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Lecture)
+DSAI-Sem3-POST
+C405</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -16825,17 +16727,32 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
+      <c r="O3" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Tutorial)
+DSAI-Sem5-POST
+C406</t>
+        </is>
+      </c>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -16945,7 +16862,14 @@
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+DSAI-Sem5-POST
+C407</t>
+        </is>
+      </c>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
       <c r="L5" s="4" t="n"/>
@@ -16954,7 +16878,11 @@
       <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
+      <c r="R5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
       <c r="U5" s="4" t="n"/>
@@ -16962,14 +16890,7 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -16978,11 +16899,7 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
@@ -17020,13 +16937,24 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence
+(Tutorial)
+DSAI-Sem3-POST
+C404</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -17036,31 +16964,31 @@
       <c r="Y6" s="4" t="n"/>
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="8" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-COMBINED
-C004</t>
-        </is>
-      </c>
+      <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="4" t="n"/>
+      <c r="AF6" s="9" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures
+(Lecture)
+DSAI-Sem5-POST
+C405</t>
+        </is>
+      </c>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
-      <c r="AK6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="4" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
@@ -17077,13 +17005,19 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AW2:BB2"/>
-    <mergeCell ref="AB6:AJ6"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="AK6"/>
-    <mergeCell ref="BC2"/>
+  <mergeCells count="12">
+    <mergeCell ref="R5"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="AF6:AN6"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="AO6"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17443,14 +17377,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Practical)
-DSAI-Sem3-POST
-L105</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -17462,11 +17389,7 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
@@ -17515,14 +17438,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -17531,12 +17447,15 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+CSE-Sem1-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -17545,7 +17464,11 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -17587,7 +17510,14 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n"/>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+CSE-Sem3-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -17596,7 +17526,11 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
@@ -17611,7 +17545,14 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="n"/>
+      <c r="Z4" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+CSE-Sem1-POST-A
+C002</t>
+        </is>
+      </c>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
@@ -17620,7 +17561,11 @@
       <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
@@ -17675,7 +17620,14 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
+      <c r="AC5" s="31" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+CSE-Sem3-POST-A
+C003</t>
+        </is>
+      </c>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -17684,7 +17636,11 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="4" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -17719,14 +17675,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-DSAI-Sem3-POST
-C203</t>
-        </is>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
@@ -17735,11 +17684,7 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U6" s="4" t="n"/>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -17747,7 +17692,14 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
+      <c r="AC6" s="31" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+CSE-Sem3-POST-A
+L105</t>
+        </is>
+      </c>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -17759,7 +17711,11 @@
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
-      <c r="AO6" s="4" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
@@ -17776,13 +17732,17 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="N2"/>
+  <mergeCells count="10">
+    <mergeCell ref="AL5"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AI4"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AC5:AK5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="AO6"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18152,7 +18112,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="32" t="inlineStr">
+        <is>
+          <t>Operating systems
+(Lecture)
+CSE-Sem3-PRE-A
+C002</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -18161,7 +18128,11 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -18203,14 +18174,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
-        <is>
-          <t>Software design
-(Practical)
-CSE-Sem3-POST-B
-L206</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -18222,11 +18186,7 @@
       <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
@@ -18346,14 +18306,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="30" t="inlineStr">
-        <is>
-          <t>Software design
-(Lecture)
-CSE-Sem3-POST-B
-C003</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -18362,11 +18315,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -18408,7 +18357,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="32" t="inlineStr">
+        <is>
+          <t>Operating systems
+(Lecture)
+CSE-Sem3-PRE-A
+C002</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -18417,7 +18373,11 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
+      <c r="K6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
@@ -18465,10 +18425,1395 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="K6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="35" max="35"/>
+    <col width="8" customWidth="1" min="36" max="36"/>
+    <col width="8" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="8" customWidth="1" min="39" max="39"/>
+    <col width="8" customWidth="1" min="40" max="40"/>
+    <col width="8" customWidth="1" min="41" max="41"/>
+    <col width="8" customWidth="1" min="42" max="42"/>
+    <col width="8" customWidth="1" min="43" max="43"/>
+    <col width="8" customWidth="1" min="44" max="44"/>
+    <col width="8" customWidth="1" min="45" max="45"/>
+    <col width="8" customWidth="1" min="46" max="46"/>
+    <col width="8" customWidth="1" min="47" max="47"/>
+    <col width="8" customWidth="1" min="48" max="48"/>
+    <col width="8" customWidth="1" min="49" max="49"/>
+    <col width="8" customWidth="1" min="50" max="50"/>
+    <col width="8" customWidth="1" min="51" max="51"/>
+    <col width="8" customWidth="1" min="52" max="52"/>
+    <col width="8" customWidth="1" min="53" max="53"/>
+    <col width="8" customWidth="1" min="54" max="54"/>
+    <col width="8" customWidth="1" min="55" max="55"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time / Day</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>09:00 - 09:10</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>09:10 - 09:20</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>09:20 - 09:30</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>09:30 - 09:40</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>09:40 - 09:50</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>09:50 - 10:00</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 10:10</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>10:10 - 10:20</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>10:20 - 10:30</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>10:30 - 10:40</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>10:40 - 10:50</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>10:50 - 11:00</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>11:00 - 11:10</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>11:10 - 11:20</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>11:20 - 11:30</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>11:30 - 11:40</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>11:40 - 11:50</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>11:50 - 12:00</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>12:00 - 12:10</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>12:10 - 12:20</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>12:20 - 12:30</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>12:30 - 12:40</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>12:40 - 12:50</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>12:50 - 13:00</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>13:00 - 13:10</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>13:10 - 13:20</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13:20 - 13:30</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 13:40</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>13:40 - 13:50</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>13:50 - 14:00</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>14:00 - 14:10</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>14:10 - 14:20</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>14:20 - 14:30</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>14:30 - 14:40</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>14:40 - 14:50</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>14:50 - 15:00</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>15:00 - 15:10</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>15:10 - 15:20</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>15:20 - 15:30</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>15:30 - 15:40</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>15:40 - 15:50</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>15:50 - 16:00</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>16:00 - 16:10</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>16:10 - 16:20</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>16:20 - 16:30</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>16:30 - 16:40</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>16:40 - 16:50</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>16:50 - 17:00</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 17:10</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>17:10 - 17:20</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>17:20 - 17:30</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>17:30 - 17:40</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>17:40 - 17:50</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>17:50 - Invalid Slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
+      <c r="AA2" s="4" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AC2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AE2" s="4" t="n"/>
+      <c r="AF2" s="4" t="n"/>
+      <c r="AG2" s="4" t="n"/>
+      <c r="AH2" s="4" t="n"/>
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="4" t="n"/>
+      <c r="AK2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
+      <c r="AM2" s="4" t="n"/>
+      <c r="AN2" s="4" t="n"/>
+      <c r="AO2" s="4" t="n"/>
+      <c r="AP2" s="4" t="n"/>
+      <c r="AQ2" s="4" t="n"/>
+      <c r="AR2" s="4" t="n"/>
+      <c r="AS2" s="4" t="n"/>
+      <c r="AT2" s="4" t="n"/>
+      <c r="AU2" s="4" t="n"/>
+      <c r="AV2" s="4" t="n"/>
+      <c r="AW2" s="4" t="n"/>
+      <c r="AX2" s="4" t="n"/>
+      <c r="AY2" s="4" t="n"/>
+      <c r="AZ2" s="4" t="n"/>
+      <c r="BA2" s="4" t="n"/>
+      <c r="BB2" s="4" t="n"/>
+      <c r="BC2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="70" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="n"/>
+      <c r="AA3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
+      <c r="AC3" s="4" t="n"/>
+      <c r="AD3" s="4" t="n"/>
+      <c r="AE3" s="4" t="n"/>
+      <c r="AF3" s="4" t="n"/>
+      <c r="AG3" s="4" t="n"/>
+      <c r="AH3" s="4" t="n"/>
+      <c r="AI3" s="4" t="n"/>
+      <c r="AJ3" s="4" t="n"/>
+      <c r="AK3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
+      <c r="AM3" s="4" t="n"/>
+      <c r="AN3" s="4" t="n"/>
+      <c r="AO3" s="4" t="n"/>
+      <c r="AP3" s="4" t="n"/>
+      <c r="AQ3" s="4" t="n"/>
+      <c r="AR3" s="4" t="n"/>
+      <c r="AS3" s="4" t="n"/>
+      <c r="AT3" s="4" t="n"/>
+      <c r="AU3" s="4" t="n"/>
+      <c r="AV3" s="4" t="n"/>
+      <c r="AW3" s="4" t="n"/>
+      <c r="AX3" s="4" t="n"/>
+      <c r="AY3" s="4" t="n"/>
+      <c r="AZ3" s="4" t="n"/>
+      <c r="BA3" s="4" t="n"/>
+      <c r="BB3" s="4" t="n"/>
+      <c r="BC3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+DSAI-Sem3-POST
+C405</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
+      <c r="AB4" s="4" t="n"/>
+      <c r="AC4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AE4" s="4" t="n"/>
+      <c r="AF4" s="4" t="n"/>
+      <c r="AG4" s="4" t="n"/>
+      <c r="AH4" s="4" t="n"/>
+      <c r="AI4" s="4" t="n"/>
+      <c r="AJ4" s="4" t="n"/>
+      <c r="AK4" s="4" t="n"/>
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
+      <c r="AN4" s="4" t="n"/>
+      <c r="AO4" s="4" t="n"/>
+      <c r="AP4" s="4" t="n"/>
+      <c r="AQ4" s="4" t="n"/>
+      <c r="AR4" s="4" t="n"/>
+      <c r="AS4" s="4" t="n"/>
+      <c r="AT4" s="4" t="n"/>
+      <c r="AU4" s="4" t="n"/>
+      <c r="AV4" s="4" t="n"/>
+      <c r="AW4" s="4" t="n"/>
+      <c r="AX4" s="4" t="n"/>
+      <c r="AY4" s="4" t="n"/>
+      <c r="AZ4" s="4" t="n"/>
+      <c r="BA4" s="4" t="n"/>
+      <c r="BB4" s="4" t="n"/>
+      <c r="BC4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="70" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+      <c r="Z5" s="4" t="n"/>
+      <c r="AA5" s="4" t="n"/>
+      <c r="AB5" s="4" t="n"/>
+      <c r="AC5" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Practical)
+DSAI-Sem3-POST
+L106</t>
+        </is>
+      </c>
+      <c r="AD5" s="4" t="n"/>
+      <c r="AE5" s="4" t="n"/>
+      <c r="AF5" s="4" t="n"/>
+      <c r="AG5" s="4" t="n"/>
+      <c r="AH5" s="4" t="n"/>
+      <c r="AI5" s="4" t="n"/>
+      <c r="AJ5" s="4" t="n"/>
+      <c r="AK5" s="4" t="n"/>
+      <c r="AL5" s="4" t="n"/>
+      <c r="AM5" s="4" t="n"/>
+      <c r="AN5" s="4" t="n"/>
+      <c r="AO5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AP5" s="4" t="n"/>
+      <c r="AQ5" s="4" t="n"/>
+      <c r="AR5" s="4" t="n"/>
+      <c r="AS5" s="4" t="n"/>
+      <c r="AT5" s="4" t="n"/>
+      <c r="AU5" s="4" t="n"/>
+      <c r="AV5" s="4" t="n"/>
+      <c r="AW5" s="4" t="n"/>
+      <c r="AX5" s="4" t="n"/>
+      <c r="AY5" s="4" t="n"/>
+      <c r="AZ5" s="4" t="n"/>
+      <c r="BA5" s="4" t="n"/>
+      <c r="BB5" s="4" t="n"/>
+      <c r="BC5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="n"/>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="4" t="n"/>
+      <c r="AC6" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+DSAI-Sem3-POST
+C404</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="n"/>
+      <c r="AE6" s="4" t="n"/>
+      <c r="AF6" s="4" t="n"/>
+      <c r="AG6" s="4" t="n"/>
+      <c r="AH6" s="4" t="n"/>
+      <c r="AI6" s="4" t="n"/>
+      <c r="AJ6" s="4" t="n"/>
+      <c r="AK6" s="4" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AM6" s="4" t="n"/>
+      <c r="AN6" s="4" t="n"/>
+      <c r="AO6" s="4" t="n"/>
+      <c r="AP6" s="4" t="n"/>
+      <c r="AQ6" s="4" t="n"/>
+      <c r="AR6" s="4" t="n"/>
+      <c r="AS6" s="4" t="n"/>
+      <c r="AT6" s="4" t="n"/>
+      <c r="AU6" s="4" t="n"/>
+      <c r="AV6" s="4" t="n"/>
+      <c r="AW6" s="4" t="n"/>
+      <c r="AX6" s="4" t="n"/>
+      <c r="AY6" s="4" t="n"/>
+      <c r="AZ6" s="4" t="n"/>
+      <c r="BA6" s="4" t="n"/>
+      <c r="BB6" s="4" t="n"/>
+      <c r="BC6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="AC6:AK6"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="AL6"/>
+    <mergeCell ref="AO5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="8" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="35" max="35"/>
+    <col width="8" customWidth="1" min="36" max="36"/>
+    <col width="8" customWidth="1" min="37" max="37"/>
+    <col width="8" customWidth="1" min="38" max="38"/>
+    <col width="8" customWidth="1" min="39" max="39"/>
+    <col width="8" customWidth="1" min="40" max="40"/>
+    <col width="8" customWidth="1" min="41" max="41"/>
+    <col width="8" customWidth="1" min="42" max="42"/>
+    <col width="8" customWidth="1" min="43" max="43"/>
+    <col width="8" customWidth="1" min="44" max="44"/>
+    <col width="8" customWidth="1" min="45" max="45"/>
+    <col width="8" customWidth="1" min="46" max="46"/>
+    <col width="8" customWidth="1" min="47" max="47"/>
+    <col width="8" customWidth="1" min="48" max="48"/>
+    <col width="8" customWidth="1" min="49" max="49"/>
+    <col width="8" customWidth="1" min="50" max="50"/>
+    <col width="8" customWidth="1" min="51" max="51"/>
+    <col width="8" customWidth="1" min="52" max="52"/>
+    <col width="8" customWidth="1" min="53" max="53"/>
+    <col width="8" customWidth="1" min="54" max="54"/>
+    <col width="8" customWidth="1" min="55" max="55"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time / Day</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>09:00 - 09:10</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>09:10 - 09:20</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>09:20 - 09:30</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>09:30 - 09:40</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>09:40 - 09:50</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>09:50 - 10:00</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 10:10</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>10:10 - 10:20</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>10:20 - 10:30</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>10:30 - 10:40</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>10:40 - 10:50</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>10:50 - 11:00</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>11:00 - 11:10</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>11:10 - 11:20</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>11:20 - 11:30</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>11:30 - 11:40</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>11:40 - 11:50</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>11:50 - 12:00</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>12:00 - 12:10</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>12:10 - 12:20</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>12:20 - 12:30</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>12:30 - 12:40</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>12:40 - 12:50</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>12:50 - 13:00</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>13:00 - 13:10</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>13:10 - 13:20</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13:20 - 13:30</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 13:40</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>13:40 - 13:50</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>13:50 - 14:00</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>14:00 - 14:10</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>14:10 - 14:20</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>14:20 - 14:30</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>14:30 - 14:40</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>14:40 - 14:50</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>14:50 - 15:00</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>15:00 - 15:10</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>15:10 - 15:20</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>15:20 - 15:30</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>15:30 - 15:40</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>15:40 - 15:50</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>15:50 - 16:00</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>16:00 - 16:10</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>16:10 - 16:20</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>16:20 - 16:30</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>16:30 - 16:40</t>
+        </is>
+      </c>
+      <c r="AV1" s="2" t="inlineStr">
+        <is>
+          <t>16:40 - 16:50</t>
+        </is>
+      </c>
+      <c r="AW1" s="2" t="inlineStr">
+        <is>
+          <t>16:50 - 17:00</t>
+        </is>
+      </c>
+      <c r="AX1" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 17:10</t>
+        </is>
+      </c>
+      <c r="AY1" s="2" t="inlineStr">
+        <is>
+          <t>17:10 - 17:20</t>
+        </is>
+      </c>
+      <c r="AZ1" s="2" t="inlineStr">
+        <is>
+          <t>17:20 - 17:30</t>
+        </is>
+      </c>
+      <c r="BA1" s="2" t="inlineStr">
+        <is>
+          <t>17:30 - 17:40</t>
+        </is>
+      </c>
+      <c r="BB1" s="2" t="inlineStr">
+        <is>
+          <t>17:40 - 17:50</t>
+        </is>
+      </c>
+      <c r="BC1" s="2" t="inlineStr">
+        <is>
+          <t>17:50 - Invalid Slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
+      <c r="AA2" s="4" t="n"/>
+      <c r="AB2" s="4" t="n"/>
+      <c r="AC2" s="4" t="n"/>
+      <c r="AD2" s="4" t="n"/>
+      <c r="AE2" s="4" t="n"/>
+      <c r="AF2" s="4" t="n"/>
+      <c r="AG2" s="4" t="n"/>
+      <c r="AH2" s="4" t="n"/>
+      <c r="AI2" s="4" t="n"/>
+      <c r="AJ2" s="4" t="n"/>
+      <c r="AK2" s="4" t="n"/>
+      <c r="AL2" s="4" t="n"/>
+      <c r="AM2" s="4" t="n"/>
+      <c r="AN2" s="4" t="n"/>
+      <c r="AO2" s="4" t="n"/>
+      <c r="AP2" s="4" t="n"/>
+      <c r="AQ2" s="4" t="n"/>
+      <c r="AR2" s="4" t="n"/>
+      <c r="AS2" s="4" t="n"/>
+      <c r="AT2" s="4" t="n"/>
+      <c r="AU2" s="4" t="n"/>
+      <c r="AV2" s="4" t="n"/>
+      <c r="AW2" s="4" t="n"/>
+      <c r="AX2" s="4" t="n"/>
+      <c r="AY2" s="4" t="n"/>
+      <c r="AZ2" s="4" t="n"/>
+      <c r="BA2" s="4" t="n"/>
+      <c r="BB2" s="4" t="n"/>
+      <c r="BC2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="70" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="4" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="4" t="n"/>
+      <c r="U3" s="4" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="n"/>
+      <c r="AA3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
+      <c r="AC3" s="4" t="n"/>
+      <c r="AD3" s="4" t="n"/>
+      <c r="AE3" s="4" t="n"/>
+      <c r="AF3" s="4" t="n"/>
+      <c r="AG3" s="4" t="n"/>
+      <c r="AH3" s="4" t="n"/>
+      <c r="AI3" s="4" t="n"/>
+      <c r="AJ3" s="4" t="n"/>
+      <c r="AK3" s="4" t="n"/>
+      <c r="AL3" s="4" t="n"/>
+      <c r="AM3" s="4" t="n"/>
+      <c r="AN3" s="4" t="n"/>
+      <c r="AO3" s="4" t="n"/>
+      <c r="AP3" s="4" t="n"/>
+      <c r="AQ3" s="4" t="n"/>
+      <c r="AR3" s="4" t="n"/>
+      <c r="AS3" s="4" t="n"/>
+      <c r="AT3" s="4" t="n"/>
+      <c r="AU3" s="4" t="n"/>
+      <c r="AV3" s="4" t="n"/>
+      <c r="AW3" s="4" t="n"/>
+      <c r="AX3" s="4" t="n"/>
+      <c r="AY3" s="4" t="n"/>
+      <c r="AZ3" s="4" t="n"/>
+      <c r="BA3" s="4" t="n"/>
+      <c r="BB3" s="4" t="n"/>
+      <c r="BC3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="31" t="inlineStr">
+        <is>
+          <t>Software design
+(Lecture)
+CSE-Sem3-POST-B
+C003</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="4" t="n"/>
+      <c r="N4" s="4" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="4" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="4" t="n"/>
+      <c r="U4" s="4" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
+      <c r="AB4" s="4" t="n"/>
+      <c r="AC4" s="4" t="n"/>
+      <c r="AD4" s="4" t="n"/>
+      <c r="AE4" s="4" t="n"/>
+      <c r="AF4" s="4" t="n"/>
+      <c r="AG4" s="4" t="n"/>
+      <c r="AH4" s="4" t="n"/>
+      <c r="AI4" s="4" t="n"/>
+      <c r="AJ4" s="4" t="n"/>
+      <c r="AK4" s="4" t="n"/>
+      <c r="AL4" s="4" t="n"/>
+      <c r="AM4" s="4" t="n"/>
+      <c r="AN4" s="4" t="n"/>
+      <c r="AO4" s="4" t="n"/>
+      <c r="AP4" s="4" t="n"/>
+      <c r="AQ4" s="4" t="n"/>
+      <c r="AR4" s="4" t="n"/>
+      <c r="AS4" s="4" t="n"/>
+      <c r="AT4" s="4" t="n"/>
+      <c r="AU4" s="4" t="n"/>
+      <c r="AV4" s="4" t="n"/>
+      <c r="AW4" s="4" t="n"/>
+      <c r="AX4" s="4" t="n"/>
+      <c r="AY4" s="4" t="n"/>
+      <c r="AZ4" s="4" t="n"/>
+      <c r="BA4" s="4" t="n"/>
+      <c r="BB4" s="4" t="n"/>
+      <c r="BC4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="70" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="n"/>
+      <c r="W5" s="4" t="n"/>
+      <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n"/>
+      <c r="Z5" s="4" t="n"/>
+      <c r="AA5" s="4" t="n"/>
+      <c r="AB5" s="4" t="n"/>
+      <c r="AC5" s="4" t="n"/>
+      <c r="AD5" s="4" t="n"/>
+      <c r="AE5" s="4" t="n"/>
+      <c r="AF5" s="4" t="n"/>
+      <c r="AG5" s="4" t="n"/>
+      <c r="AH5" s="4" t="n"/>
+      <c r="AI5" s="4" t="n"/>
+      <c r="AJ5" s="4" t="n"/>
+      <c r="AK5" s="4" t="n"/>
+      <c r="AL5" s="4" t="n"/>
+      <c r="AM5" s="4" t="n"/>
+      <c r="AN5" s="4" t="n"/>
+      <c r="AO5" s="4" t="n"/>
+      <c r="AP5" s="4" t="n"/>
+      <c r="AQ5" s="4" t="n"/>
+      <c r="AR5" s="4" t="n"/>
+      <c r="AS5" s="4" t="n"/>
+      <c r="AT5" s="4" t="n"/>
+      <c r="AU5" s="4" t="n"/>
+      <c r="AV5" s="4" t="n"/>
+      <c r="AW5" s="4" t="n"/>
+      <c r="AX5" s="4" t="n"/>
+      <c r="AY5" s="4" t="n"/>
+      <c r="AZ5" s="4" t="n"/>
+      <c r="BA5" s="4" t="n"/>
+      <c r="BB5" s="4" t="n"/>
+      <c r="BC5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="70" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="n"/>
+      <c r="W6" s="4" t="n"/>
+      <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="n"/>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="4" t="n"/>
+      <c r="AC6" s="31" t="inlineStr">
+        <is>
+          <t>Software design
+(Practical)
+CSE-Sem3-POST-B
+L106</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="n"/>
+      <c r="AE6" s="4" t="n"/>
+      <c r="AF6" s="4" t="n"/>
+      <c r="AG6" s="4" t="n"/>
+      <c r="AH6" s="4" t="n"/>
+      <c r="AI6" s="4" t="n"/>
+      <c r="AJ6" s="4" t="n"/>
+      <c r="AK6" s="4" t="n"/>
+      <c r="AL6" s="4" t="n"/>
+      <c r="AM6" s="4" t="n"/>
+      <c r="AN6" s="4" t="n"/>
+      <c r="AO6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="AP6" s="4" t="n"/>
+      <c r="AQ6" s="4" t="n"/>
+      <c r="AR6" s="4" t="n"/>
+      <c r="AS6" s="4" t="n"/>
+      <c r="AT6" s="4" t="n"/>
+      <c r="AU6" s="4" t="n"/>
+      <c r="AV6" s="4" t="n"/>
+      <c r="AW6" s="4" t="n"/>
+      <c r="AX6" s="4" t="n"/>
+      <c r="AY6" s="4" t="n"/>
+      <c r="AZ6" s="4" t="n"/>
+      <c r="BA6" s="4" t="n"/>
+      <c r="BB6" s="4" t="n"/>
+      <c r="BC6" s="4" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AO6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18828,7 +20173,14 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n"/>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+DSAI-Sem1-POST
+L105</t>
+        </is>
+      </c>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -18840,15 +20192,12 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-DSAI-Sem5-POST
-C406</t>
-        </is>
-      </c>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="4" t="n"/>
@@ -18857,13 +20206,16 @@
       <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
-      <c r="X2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+CSE-Sem1-POST-A
+L105</t>
+        </is>
+      </c>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
@@ -18875,11 +20227,22 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="4" t="n"/>
+      <c r="AL2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
-      <c r="AP2" s="4" t="n"/>
+      <c r="AP2" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Practical)
+CSE-Sem1-POST-B
+L105</t>
+        </is>
+      </c>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
       <c r="AS2" s="4" t="n"/>
@@ -18891,7 +20254,11 @@
       <c r="AY2" s="4" t="n"/>
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
-      <c r="BB2" s="4" t="n"/>
+      <c r="BB2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="BC2" s="4" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
@@ -18900,7 +20267,14 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n"/>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -18909,31 +20283,35 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="4" t="n"/>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Tutorial)
-DSAI-Sem3-POST
-C202</t>
-        </is>
-      </c>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
-      <c r="O3" s="4" t="n"/>
+      <c r="O3" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem5-POST-A
+C404</t>
+        </is>
+      </c>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
-      <c r="X3" s="4" t="n"/>
+      <c r="X3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="Y3" s="4" t="n"/>
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
@@ -18982,12 +20360,12 @@
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
+      <c r="L4" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
 (Lecture)
-DSAI-Sem3-POST
-C405</t>
+CSE-Sem5-POST-A
+C406</t>
         </is>
       </c>
       <c r="M4" s="4" t="n"/>
@@ -19013,14 +20391,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="9" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Lecture)
-DSAI-Sem5-POST
-C204</t>
-        </is>
-      </c>
+      <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
@@ -19029,11 +20400,7 @@
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
-      <c r="AO4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
@@ -19065,30 +20432,30 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
+      <c r="L5" s="10" t="inlineStr">
+        <is>
+          <t>Problem Solving with python
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
-      <c r="O5" s="10" t="inlineStr">
-        <is>
-          <t>Artificial Intelligence
-(Lecture)
-DSAI-Sem3-POST
-C304</t>
-        </is>
-      </c>
+      <c r="O5" s="4" t="n"/>
       <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
+      <c r="U5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
-      <c r="X5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
@@ -19096,13 +20463,24 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="4" t="n"/>
+      <c r="AF5" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+CSE-Sem5-POST-A
+C403</t>
+        </is>
+      </c>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="4" t="n"/>
+      <c r="AL5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -19127,25 +20505,21 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>Algorithms and Data Structures
-(Tutorial)
-DSAI-Sem5-POST
-C202</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="n"/>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
       <c r="G6" s="4" t="n"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+CSE-Sem5-POST-A
+L105</t>
+        </is>
+      </c>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
@@ -19157,7 +20531,11 @@
       <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
@@ -19194,19 +20572,25 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="L4:T4"/>
-    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="X3"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="Z2:AK2"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="AO4"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AF4:AN4"/>
-    <mergeCell ref="R3"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X5"/>
+    <mergeCell ref="AL5"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AP2:BA2"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="BB2"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="AL2"/>
+    <mergeCell ref="O3:W3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19566,14 +20950,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-DSAI-Sem1-POST
-L206</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -19585,22 +20962,11 @@
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-POST-A
-C101</t>
-        </is>
-      </c>
+      <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
       <c r="U2" s="4" t="n"/>
@@ -19609,11 +20975,7 @@
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n"/>
       <c r="Z2" s="4" t="n"/>
-      <c r="AA2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
@@ -19622,14 +20984,7 @@
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
-      <c r="AJ2" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-CSE-Sem1-POST-A
-L308</t>
-        </is>
-      </c>
+      <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
@@ -19641,11 +20996,7 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="4" t="n"/>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -19660,14 +21011,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-DSAI-Sem1-POST
-C404</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -19676,11 +21020,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -19705,14 +21045,7 @@
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
-      <c r="AJ3" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Practical)
-CSE-Sem1-POST-B
-L107</t>
-        </is>
-      </c>
+      <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
@@ -19724,11 +21057,7 @@
       <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
-      <c r="AV3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV3" s="4" t="n"/>
       <c r="AW3" s="4" t="n"/>
       <c r="AX3" s="4" t="n"/>
       <c r="AY3" s="4" t="n"/>
@@ -19743,41 +21072,34 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>Problem Solving with python
-(Lecture)
-DSAI-Sem1-POST
-C405</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="n"/>
       <c r="C4" s="4" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n"/>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+ECE-Sem1-POST
+C404</t>
+        </is>
+      </c>
       <c r="J4" s="4" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
-      <c r="O4" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-CSE-Sem5-POST-A
-L208</t>
-        </is>
-      </c>
+      <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
+      <c r="R4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
@@ -19785,12 +21107,15 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="n"/>
-      <c r="AA4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Z4" s="12" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
+        </is>
+      </c>
+      <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
@@ -19798,7 +21123,11 @@
       <c r="AF4" s="4" t="n"/>
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
-      <c r="AI4" s="4" t="n"/>
+      <c r="AI4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
@@ -19836,14 +21165,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-POST-A
-C305</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -19852,11 +21174,7 @@
       <c r="R5" s="4" t="n"/>
       <c r="S5" s="4" t="n"/>
       <c r="T5" s="4" t="n"/>
-      <c r="U5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U5" s="4" t="n"/>
       <c r="V5" s="4" t="n"/>
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
@@ -19910,10 +21228,10 @@
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="12" t="inlineStr">
         <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem5-POST-A
-C104</t>
+          <t>Economics/IET
+(Lecture)
+DSAI-Sem1-POST
+C403</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -19921,19 +21239,26 @@
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R6" s="4" t="n"/>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
+      <c r="U6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V6" s="4" t="n"/>
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="12" t="inlineStr">
+        <is>
+          <t>Economics/IET
+(Lecture)
+ECE-Sem1-POST
+C403</t>
+        </is>
+      </c>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
       <c r="AC6" s="4" t="n"/>
@@ -19942,7 +21267,11 @@
       <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="4" t="n"/>
+      <c r="AI6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
@@ -19965,25 +21294,15 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA4"/>
-    <mergeCell ref="AV3"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="AJ2:AU2"/>
-    <mergeCell ref="AA2"/>
-    <mergeCell ref="AV2"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="AJ3:AU3"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="K4"/>
+  <mergeCells count="8">
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="AI4"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="AI6"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="Z4:AH4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20361,7 +21680,7 @@
           <t>Happiness &amp; Wellbeing
 (Lecture)
 ECE-Sem5-POST
-C303</t>
+C407</t>
         </is>
       </c>
       <c r="P2" s="4" t="n"/>
@@ -20437,7 +21756,7 @@
           <t>Happiness &amp; Wellbeing
 (Lecture)
 ECE-Sem5-POST
-C403</t>
+C407</t>
         </is>
       </c>
       <c r="T3" s="4" t="n"/>
@@ -21755,14 +23074,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-ECE-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
       <c r="AF2" s="4" t="n"/>
@@ -21771,11 +23083,7 @@
       <c r="AI2" s="4" t="n"/>
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
-      <c r="AL2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
@@ -21830,9 +23138,9 @@
       <c r="AC3" s="15" t="inlineStr">
         <is>
           <t>Machine Learning
-(Tutorial)
+(Lecture)
 ECE-Sem3-POST
-C408</t>
+C404</t>
         </is>
       </c>
       <c r="AD3" s="4" t="n"/>
@@ -21840,14 +23148,14 @@
       <c r="AF3" s="4" t="n"/>
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
-      <c r="AI3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI3" s="4" t="n"/>
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
-      <c r="AL3" s="4" t="n"/>
+      <c r="AL3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM3" s="4" t="n"/>
       <c r="AN3" s="4" t="n"/>
       <c r="AO3" s="4" t="n"/>
@@ -21899,7 +23207,14 @@
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="4" t="n"/>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Lecture)
+ECE-Sem3-POST
+C404</t>
+        </is>
+      </c>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
       <c r="AF4" s="4" t="n"/>
@@ -21908,7 +23223,11 @@
       <c r="AI4" s="4" t="n"/>
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
-      <c r="AL4" s="4" t="n"/>
+      <c r="AL4" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
@@ -22004,13 +23323,24 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
+      <c r="L6" s="15" t="inlineStr">
+        <is>
+          <t>Machine Learning
+(Tutorial)
+ECE-Sem3-POST
+C405</t>
+        </is>
+      </c>
       <c r="M6" s="4" t="n"/>
       <c r="N6" s="4" t="n"/>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S6" s="4" t="n"/>
       <c r="T6" s="4" t="n"/>
       <c r="U6" s="4" t="n"/>
@@ -22021,14 +23351,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="15" t="inlineStr">
-        <is>
-          <t>Machine Learning
-(Lecture)
-ECE-Sem3-POST
-C204</t>
-        </is>
-      </c>
+      <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -22037,11 +23360,7 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -22062,12 +23381,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC6:AK6"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="AL6"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="AL2"/>
+    <mergeCell ref="AL3"/>
+    <mergeCell ref="AL4"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="AC4:AK4"/>
+    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="L6:Q6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22437,12 +23756,12 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="12" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
 CSE-Sem5-POST-B
-C304</t>
+C404</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -22499,14 +23818,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Practical)
-CSE-Sem5-POST-B
-L208</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -22516,17 +23828,24 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Tutorial)
+CSE-Sem5-POST-B
+C405</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
-      <c r="N3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
       <c r="P3" s="4" t="n"/>
       <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
+      <c r="R3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
@@ -22578,14 +23897,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Lecture)
-CSE-Sem5-POST-B
-C101</t>
-        </is>
-      </c>
+      <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
       <c r="K4" s="4" t="n"/>
       <c r="L4" s="4" t="n"/>
@@ -22594,11 +23906,7 @@
       <c r="O4" s="4" t="n"/>
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="R4" s="4" t="n"/>
       <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
@@ -22650,17 +23958,17 @@
       <c r="F5" s="4" t="n"/>
       <c r="G5" s="4" t="n"/>
       <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Lecture)
+CSE-Sem5-POST-B
+C406</t>
+        </is>
+      </c>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="12" t="inlineStr">
-        <is>
-          <t>Computer Networks
-(Tutorial)
-CSE-Sem5-POST-B
-C204</t>
-        </is>
-      </c>
+      <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
       <c r="O5" s="4" t="n"/>
@@ -22715,7 +24023,14 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n"/>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>Computer Networks
+(Practical)
+CSE-Sem5-POST-B
+L106</t>
+        </is>
+      </c>
       <c r="C6" s="4" t="n"/>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -22727,7 +24042,11 @@
       <c r="K6" s="4" t="n"/>
       <c r="L6" s="4" t="n"/>
       <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
+      <c r="N6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="O6" s="4" t="n"/>
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
@@ -22772,14 +24091,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B6:M6"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="R5"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="N6"/>
     <mergeCell ref="U2"/>
-    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -81,7 +81,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
@@ -102,8 +102,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7E5D1"/>
-        <bgColor rgb="00B7E5D1"/>
+        <fgColor rgb="00E1D5CE"/>
+        <bgColor rgb="00E1D5CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,194 +114,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5BAB9"/>
-        <bgColor rgb="00B5BAB9"/>
+        <fgColor rgb="00BBBDCB"/>
+        <bgColor rgb="00BBBDCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3DEDF"/>
-        <bgColor rgb="00D3DEDF"/>
+        <fgColor rgb="00C5D9C0"/>
+        <bgColor rgb="00C5D9C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EABDC2"/>
-        <bgColor rgb="00EABDC2"/>
+        <fgColor rgb="00EBC5CC"/>
+        <bgColor rgb="00EBC5CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDE1E1"/>
-        <bgColor rgb="00BDE1E1"/>
+        <fgColor rgb="00B8C5B9"/>
+        <bgColor rgb="00B8C5B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAD8DD"/>
-        <bgColor rgb="00CAD8DD"/>
+        <fgColor rgb="00C5B8DA"/>
+        <bgColor rgb="00C5B8DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9B4BF"/>
-        <bgColor rgb="00B9B4BF"/>
+        <fgColor rgb="00BFC7ED"/>
+        <bgColor rgb="00BFC7ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0BAEC"/>
-        <bgColor rgb="00D0BAEC"/>
+        <fgColor rgb="00E0D4DB"/>
+        <bgColor rgb="00E0D4DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1BBB4"/>
-        <bgColor rgb="00E1BBB4"/>
+        <fgColor rgb="00ECE1E8"/>
+        <bgColor rgb="00ECE1E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFB6C2"/>
-        <bgColor rgb="00DFB6C2"/>
+        <fgColor rgb="00E1D4E1"/>
+        <bgColor rgb="00E1D4E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEECD0"/>
-        <bgColor rgb="00EEECD0"/>
+        <fgColor rgb="00B8BBDD"/>
+        <bgColor rgb="00B8BBDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBEDC6"/>
-        <bgColor rgb="00BBEDC6"/>
+        <fgColor rgb="00B9D6B4"/>
+        <bgColor rgb="00B9D6B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9C1E7"/>
-        <bgColor rgb="00E9C1E7"/>
+        <fgColor rgb="00E9ECBA"/>
+        <bgColor rgb="00E9ECBA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2BDDF"/>
-        <bgColor rgb="00E2BDDF"/>
+        <fgColor rgb="00B7BCD6"/>
+        <bgColor rgb="00B7BCD6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2B8E2"/>
-        <bgColor rgb="00D2B8E2"/>
+        <fgColor rgb="00EAE8F0"/>
+        <bgColor rgb="00EAE8F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7D3CD"/>
-        <bgColor rgb="00B7D3CD"/>
+        <fgColor rgb="00E2DBBE"/>
+        <bgColor rgb="00E2DBBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2E5E3"/>
-        <bgColor rgb="00D2E5E3"/>
+        <fgColor rgb="00DED6BD"/>
+        <bgColor rgb="00DED6BD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCE9DA"/>
-        <bgColor rgb="00DCE9DA"/>
+        <fgColor rgb="00F0C8E6"/>
+        <bgColor rgb="00F0C8E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0EBB9"/>
-        <bgColor rgb="00C0EBB9"/>
+        <fgColor rgb="00D9C5C5"/>
+        <bgColor rgb="00D9C5C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8D3C7"/>
-        <bgColor rgb="00B8D3C7"/>
+        <fgColor rgb="00D9EAEB"/>
+        <bgColor rgb="00D9EAEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5BCCF"/>
-        <bgColor rgb="00E5BCCF"/>
+        <fgColor rgb="00F0E3CD"/>
+        <bgColor rgb="00F0E3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0CDD5"/>
-        <bgColor rgb="00F0CDD5"/>
+        <fgColor rgb="00CDEBC4"/>
+        <bgColor rgb="00CDEBC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7D9"/>
-        <bgColor rgb="00B9E7D9"/>
+        <fgColor rgb="00DCD2B6"/>
+        <bgColor rgb="00DCD2B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8C2E3"/>
-        <bgColor rgb="00D8C2E3"/>
+        <fgColor rgb="00D9BDD7"/>
+        <bgColor rgb="00D9BDD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BECEC1"/>
-        <bgColor rgb="00BECEC1"/>
+        <fgColor rgb="00ECEFD4"/>
+        <bgColor rgb="00ECEFD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC8D5"/>
-        <bgColor rgb="00DDC8D5"/>
+        <fgColor rgb="00BBBDC4"/>
+        <bgColor rgb="00BBBDC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCEDD0"/>
-        <bgColor rgb="00DCEDD0"/>
+        <fgColor rgb="00E6C6ED"/>
+        <bgColor rgb="00E6C6ED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFBFD2"/>
-        <bgColor rgb="00BFBFD2"/>
+        <fgColor rgb="00EACCBA"/>
+        <bgColor rgb="00EACCBA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0BACB"/>
-        <bgColor rgb="00F0BACB"/>
+        <fgColor rgb="00E5C7B7"/>
+        <bgColor rgb="00E5C7B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EFEEEE"/>
-        <bgColor rgb="00EFEEEE"/>
+        <fgColor rgb="00BFCEE0"/>
+        <bgColor rgb="00BFCEE0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5BAE7"/>
-        <bgColor rgb="00D5BAE7"/>
+        <fgColor rgb="00C3EDBF"/>
+        <bgColor rgb="00C3EDBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E3EF"/>
-        <bgColor rgb="00E1E3EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EEBCB5"/>
-        <bgColor rgb="00EEBCB5"/>
+        <fgColor rgb="00D4DCBC"/>
+        <bgColor rgb="00D4DCBC"/>
       </patternFill>
     </fill>
   </fills>
@@ -331,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -438,9 +432,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1923,7 +1914,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>Probability
 (Lecture)
@@ -1995,7 +1986,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="18" t="inlineStr">
         <is>
           <t>Probability
 (Lecture)
@@ -2067,7 +2058,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="18" t="inlineStr">
         <is>
           <t>Probability
 (Tutorial)
@@ -2149,7 +2140,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="17" t="inlineStr">
+      <c r="L5" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -2207,7 +2198,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -2736,7 +2727,7 @@
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="20" t="inlineStr">
+      <c r="AM3" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -2808,7 +2799,7 @@
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="20" t="inlineStr">
+      <c r="AM4" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -2941,7 +2932,7 @@
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
-      <c r="AM6" s="20" t="inlineStr">
+      <c r="AM6" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Tutorial)
@@ -3481,7 +3472,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -4240,7 +4231,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>HSS (Ethics)
 (Lecture)
@@ -4312,7 +4303,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="22" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>HSS (Ethics)
 (Lecture)
@@ -4970,7 +4961,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="21" t="inlineStr">
+      <c r="B5" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -5049,7 +5040,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="21" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -5111,14 +5102,7 @@
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
       <c r="AS6" s="4" t="n"/>
-      <c r="AT6" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
       <c r="AW6" s="4" t="n"/>
@@ -5127,17 +5111,12 @@
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>
       <c r="BB6" s="4" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AT6:BB6"/>
     <mergeCell ref="AF2:AN2"/>
     <mergeCell ref="AF5:AN5"/>
     <mergeCell ref="U3"/>
@@ -5147,7 +5126,6 @@
     <mergeCell ref="U2"/>
     <mergeCell ref="R6"/>
     <mergeCell ref="AO5"/>
-    <mergeCell ref="BC6"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="AF4:AK4"/>
@@ -5520,7 +5498,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -5592,7 +5570,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="23" t="inlineStr">
+      <c r="L3" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -5671,24 +5649,13 @@
       <c r="P4" s="4" t="n"/>
       <c r="Q4" s="4" t="n"/>
       <c r="R4" s="4" t="n"/>
-      <c r="S4" s="16" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-DSAI
-C403</t>
-        </is>
-      </c>
+      <c r="S4" s="4" t="n"/>
       <c r="T4" s="4" t="n"/>
       <c r="U4" s="4" t="n"/>
       <c r="V4" s="4" t="n"/>
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
@@ -5736,7 +5703,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="23" t="inlineStr">
+      <c r="L5" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -5854,13 +5821,11 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="R5"/>
-    <mergeCell ref="Y4"/>
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="S4:X4"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="L3:T3"/>
   </mergeCells>
@@ -6303,7 +6268,7 @@
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
-      <c r="V3" s="24" t="inlineStr">
+      <c r="V3" s="23" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Tutorial)
@@ -6369,7 +6334,7 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="24" t="inlineStr">
+      <c r="P4" s="23" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
@@ -6498,7 +6463,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="24" t="inlineStr">
+      <c r="L6" s="23" t="inlineStr">
         <is>
           <t>Introduction to VLSI Design
 (Lecture)
@@ -6951,7 +6916,7 @@
       <c r="AC2" s="4" t="n"/>
       <c r="AD2" s="4" t="n"/>
       <c r="AE2" s="4" t="n"/>
-      <c r="AF2" s="25" t="inlineStr">
+      <c r="AF2" s="24" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Tutorial)
@@ -7145,7 +7110,7 @@
       <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
-      <c r="AF5" s="25" t="inlineStr">
+      <c r="AF5" s="24" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
@@ -7217,7 +7182,7 @@
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="25" t="inlineStr">
+      <c r="AF6" s="24" t="inlineStr">
         <is>
           <t>Introduction to Algorithms
 (Lecture)
@@ -8346,7 +8311,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="25" t="inlineStr">
+      <c r="AC2" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
@@ -8523,7 +8488,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="25" t="inlineStr">
+      <c r="L5" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Practical)
@@ -8595,7 +8560,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="25" t="inlineStr">
+      <c r="L6" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
@@ -9240,14 +9205,7 @@
       <c r="AG4" s="4" t="n"/>
       <c r="AH4" s="4" t="n"/>
       <c r="AI4" s="4" t="n"/>
-      <c r="AJ4" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
       <c r="AM4" s="4" t="n"/>
@@ -9256,11 +9214,7 @@
       <c r="AP4" s="4" t="n"/>
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
-      <c r="AS4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
@@ -9312,14 +9266,7 @@
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
       <c r="AI5" s="4" t="n"/>
-      <c r="AJ5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
@@ -9328,11 +9275,7 @@
       <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
-      <c r="AS5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
       <c r="AV5" s="4" t="n"/>
@@ -9406,18 +9349,14 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="12">
     <mergeCell ref="X3"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="R4"/>
-    <mergeCell ref="AJ4:AR4"/>
-    <mergeCell ref="AS5"/>
-    <mergeCell ref="AS4"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="AJ5:AR5"/>
     <mergeCell ref="X2"/>
     <mergeCell ref="K2"/>
     <mergeCell ref="O2:W2"/>
@@ -9816,14 +9755,7 @@
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
       <c r="AI2" s="4" t="n"/>
-      <c r="AJ2" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
       <c r="AM2" s="4" t="n"/>
@@ -9832,11 +9764,7 @@
       <c r="AP2" s="4" t="n"/>
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
-      <c r="AS2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
@@ -9898,14 +9826,7 @@
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
       <c r="AS3" s="4" t="n"/>
-      <c r="AT3" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
       <c r="AW3" s="4" t="n"/>
@@ -9914,11 +9835,7 @@
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
       <c r="BB3" s="4" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="4" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -10011,14 +9928,7 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
       <c r="AC5" s="4" t="n"/>
@@ -10027,22 +9937,11 @@
       <c r="AF5" s="4" t="n"/>
       <c r="AG5" s="4" t="n"/>
       <c r="AH5" s="4" t="n"/>
-      <c r="AI5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
       <c r="AL5" s="4" t="n"/>
-      <c r="AM5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
       <c r="AP5" s="4" t="n"/>
@@ -10051,11 +9950,7 @@
       <c r="AS5" s="4" t="n"/>
       <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
-      <c r="AV5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
       <c r="AY5" s="4" t="n"/>
@@ -10114,7 +10009,14 @@
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
       <c r="AS6" s="4" t="n"/>
-      <c r="AT6" s="4" t="n"/>
+      <c r="AT6" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
       <c r="AW6" s="4" t="n"/>
@@ -10123,18 +10025,16 @@
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>
       <c r="BB6" s="4" t="n"/>
-      <c r="BC6" s="4" t="n"/>
+      <c r="BC6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AI5"/>
-    <mergeCell ref="AJ2:AR2"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="BC3"/>
-    <mergeCell ref="AS2"/>
-    <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="AV5"/>
-    <mergeCell ref="AT3:BB3"/>
+  <mergeCells count="2">
+    <mergeCell ref="BC6"/>
+    <mergeCell ref="AT6:BB6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11322,7 +11222,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -11387,7 +11287,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -11459,7 +11359,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -11892,14 +11792,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
-        <is>
-          <t>Basket (A)
-(Basket)
-ECE
-C403</t>
-        </is>
-      </c>
+      <c r="B2" s="4" t="n"/>
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -11908,11 +11801,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
@@ -11975,14 +11864,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>Basket (A)
-(Basket)
-ECE
-C403</t>
-        </is>
-      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -11991,11 +11873,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="K3" s="4" t="n"/>
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
@@ -12047,7 +11925,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Semiconductor Devices
 (Lecture)
@@ -12119,7 +11997,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Semiconductor Devices
 (Practical)
@@ -12157,14 +12035,7 @@
       <c r="Z5" s="4" t="n"/>
       <c r="AA5" s="4" t="n"/>
       <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AC5" s="4" t="n"/>
       <c r="AD5" s="4" t="n"/>
       <c r="AE5" s="4" t="n"/>
       <c r="AF5" s="4" t="n"/>
@@ -12173,11 +12044,7 @@
       <c r="AI5" s="4" t="n"/>
       <c r="AJ5" s="4" t="n"/>
       <c r="AK5" s="4" t="n"/>
-      <c r="AL5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AL5" s="4" t="n"/>
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
@@ -12202,7 +12069,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Semiconductor Devices
 (Lecture)
@@ -12240,7 +12107,14 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+DSAI-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
       <c r="AF6" s="4" t="n"/>
@@ -12249,7 +12123,11 @@
       <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
-      <c r="AL6" s="4" t="n"/>
+      <c r="AL6" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AM6" s="4" t="n"/>
       <c r="AN6" s="4" t="n"/>
       <c r="AO6" s="4" t="n"/>
@@ -12269,20 +12147,16 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AL5"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K3"/>
+  <mergeCells count="10">
+    <mergeCell ref="AC6:AK6"/>
     <mergeCell ref="AC2:AK2"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="AC5:AK5"/>
     <mergeCell ref="N5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B4:J4"/>
+    <mergeCell ref="AL6"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="K2"/>
     <mergeCell ref="AL2"/>
-    <mergeCell ref="B2:J2"/>
     <mergeCell ref="K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12643,7 +12517,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -12715,7 +12589,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -12746,7 +12620,7 @@
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
       <c r="U3" s="4" t="n"/>
-      <c r="V3" s="27" t="inlineStr">
+      <c r="V3" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Tutorial)
@@ -12798,7 +12672,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -12823,7 +12697,7 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="27" t="inlineStr">
+      <c r="P4" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Lecture)
@@ -12959,7 +12833,7 @@
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="27" t="inlineStr">
+      <c r="S6" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Lecture)
@@ -13452,7 +13326,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="28" t="inlineStr">
+      <c r="L3" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
@@ -13480,7 +13354,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="28" t="inlineStr">
+      <c r="AC3" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
@@ -13552,7 +13426,7 @@
       <c r="Z4" s="4" t="n"/>
       <c r="AA4" s="4" t="n"/>
       <c r="AB4" s="4" t="n"/>
-      <c r="AC4" s="28" t="inlineStr">
+      <c r="AC4" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
@@ -13576,7 +13450,7 @@
       <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
-      <c r="AP4" s="28" t="inlineStr">
+      <c r="AP4" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Lecture)
@@ -13696,7 +13570,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="28" t="inlineStr">
+      <c r="AC6" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Tutorial)
@@ -13717,7 +13591,7 @@
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
-      <c r="AM6" s="28" t="inlineStr">
+      <c r="AM6" s="27" t="inlineStr">
         <is>
           <t>Computer Networks
 (Tutorial)
@@ -14248,7 +14122,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="29" t="inlineStr">
+      <c r="I4" s="28" t="inlineStr">
         <is>
           <t>Digital Design
 (Practical)
@@ -14313,7 +14187,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="29" t="inlineStr">
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>Digital Design
 (Lecture)
@@ -14385,7 +14259,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="28" t="inlineStr">
         <is>
           <t>Digital Design
 (Lecture)
@@ -14818,7 +14692,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -14869,7 +14743,7 @@
       <c r="AF2" s="4" t="n"/>
       <c r="AG2" s="4" t="n"/>
       <c r="AH2" s="4" t="n"/>
-      <c r="AI2" s="25" t="inlineStr">
+      <c r="AI2" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
@@ -14908,7 +14782,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -14987,7 +14861,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -15076,7 +14950,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="25" t="inlineStr">
+      <c r="L5" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Practical)
@@ -15148,7 +15022,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="25" t="inlineStr">
+      <c r="L6" s="24" t="inlineStr">
         <is>
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
@@ -15580,7 +15454,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -15648,7 +15522,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -15723,7 +15597,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -15788,7 +15662,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -15860,7 +15734,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -16295,7 +16169,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -16311,7 +16185,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="30" t="inlineStr">
+      <c r="K2" s="29" t="inlineStr">
         <is>
           <t>Analog Electronics
 (Practical)
@@ -16350,7 +16224,14 @@
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="4" t="n"/>
+      <c r="AM2" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
@@ -16359,7 +16240,11 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="4" t="n"/>
+      <c r="AV2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -16374,7 +16259,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -16419,14 +16304,7 @@
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
-      <c r="AJ3" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
@@ -16435,11 +16313,7 @@
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
-      <c r="AS3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
@@ -16464,7 +16338,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -16501,14 +16375,7 @@
       <c r="AJ4" s="4" t="n"/>
       <c r="AK4" s="4" t="n"/>
       <c r="AL4" s="4" t="n"/>
-      <c r="AM4" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AM4" s="4" t="n"/>
       <c r="AN4" s="4" t="n"/>
       <c r="AO4" s="4" t="n"/>
       <c r="AP4" s="4" t="n"/>
@@ -16517,11 +16384,7 @@
       <c r="AS4" s="4" t="n"/>
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
-      <c r="AV4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
@@ -16576,7 +16439,14 @@
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
-      <c r="AP5" s="4" t="n"/>
+      <c r="AP5" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+ECE-Sem3-POST
+C403</t>
+        </is>
+      </c>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
       <c r="AS5" s="4" t="n"/>
@@ -16585,7 +16455,11 @@
       <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
-      <c r="AY5" s="4" t="n"/>
+      <c r="AY5" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="AZ5" s="4" t="n"/>
       <c r="BA5" s="4" t="n"/>
       <c r="BB5" s="4" t="n"/>
@@ -16607,7 +16481,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="30" t="inlineStr">
+      <c r="L6" s="29" t="inlineStr">
         <is>
           <t>Analog Electronics
 (Lecture)
@@ -16665,18 +16539,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AM2:AU2"/>
     <mergeCell ref="L6:T6"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AV4"/>
-    <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="AS3"/>
+    <mergeCell ref="AY5"/>
+    <mergeCell ref="AV2"/>
     <mergeCell ref="U6"/>
+    <mergeCell ref="AP5:AX5"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="N2"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="AJ3:AR3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17827,7 +17701,7 @@
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="31" t="inlineStr">
+      <c r="Z3" s="30" t="inlineStr">
         <is>
           <t>English Language and Communication
 (Lecture)
@@ -17851,7 +17725,7 @@
       <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
-      <c r="AM3" s="31" t="inlineStr">
+      <c r="AM3" s="30" t="inlineStr">
         <is>
           <t>English Language and Communication
 (Lecture)
@@ -17941,14 +17815,7 @@
       <c r="AQ4" s="4" t="n"/>
       <c r="AR4" s="4" t="n"/>
       <c r="AS4" s="4" t="n"/>
-      <c r="AT4" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
       <c r="AW4" s="4" t="n"/>
@@ -17957,11 +17824,7 @@
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
       <c r="BB4" s="4" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="4" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -18013,14 +17876,7 @@
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
       <c r="AS5" s="4" t="n"/>
-      <c r="AT5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT5" s="4" t="n"/>
       <c r="AU5" s="4" t="n"/>
       <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
@@ -18029,11 +17885,7 @@
       <c r="AZ5" s="4" t="n"/>
       <c r="BA5" s="4" t="n"/>
       <c r="BB5" s="4" t="n"/>
-      <c r="BC5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC5" s="4" t="n"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" s="3" t="inlineStr">
@@ -18051,7 +17903,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="31" t="inlineStr">
+      <c r="L6" s="30" t="inlineStr">
         <is>
           <t>English Language and Communication
 (Lecture)
@@ -18076,7 +17928,7 @@
       <c r="W6" s="4" t="n"/>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="31" t="inlineStr">
+      <c r="Z6" s="30" t="inlineStr">
         <is>
           <t>English Language and Communication
 (Lecture)
@@ -18130,27 +17982,23 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="BC5"/>
-    <mergeCell ref="AI3"/>
-    <mergeCell ref="BC4"/>
-    <mergeCell ref="AT5:BB5"/>
-    <mergeCell ref="AV6"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="AT4:BB4"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="Z4:AH4"/>
+  <mergeCells count="16">
+    <mergeCell ref="AM2:AU2"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="L6:T6"/>
+    <mergeCell ref="Z6:AH6"/>
     <mergeCell ref="AM6:AU6"/>
     <mergeCell ref="AM3:AU3"/>
     <mergeCell ref="AV3"/>
+    <mergeCell ref="AI3"/>
+    <mergeCell ref="AI4"/>
+    <mergeCell ref="AV6"/>
     <mergeCell ref="AV2"/>
     <mergeCell ref="U2"/>
+    <mergeCell ref="U6"/>
     <mergeCell ref="AI6"/>
-    <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="AI4"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18510,7 +18358,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="32" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -18582,7 +18430,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="32" t="inlineStr">
+      <c r="B3" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -18606,7 +18454,7 @@
       <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
-      <c r="O3" s="32" t="inlineStr">
+      <c r="O3" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -18665,7 +18513,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="32" t="inlineStr">
+      <c r="B4" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Tutorial)
@@ -18737,7 +18585,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="32" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -18809,7 +18657,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B6" s="31" t="inlineStr">
         <is>
           <t>Statistics
 (Lecture)
@@ -19978,14 +19826,7 @@
       <c r="AQ2" s="4" t="n"/>
       <c r="AR2" s="4" t="n"/>
       <c r="AS2" s="4" t="n"/>
-      <c r="AT2" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
       <c r="AV2" s="4" t="n"/>
       <c r="AW2" s="4" t="n"/>
@@ -19994,11 +19835,7 @@
       <c r="AZ2" s="4" t="n"/>
       <c r="BA2" s="4" t="n"/>
       <c r="BB2" s="4" t="n"/>
-      <c r="BC2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC2" s="4" t="n"/>
     </row>
     <row r="3" ht="70" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -20050,14 +19887,7 @@
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
       <c r="AS3" s="4" t="n"/>
-      <c r="AT3" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
       <c r="AW3" s="4" t="n"/>
@@ -20066,11 +19896,7 @@
       <c r="AZ3" s="4" t="n"/>
       <c r="BA3" s="4" t="n"/>
       <c r="BB3" s="4" t="n"/>
-      <c r="BC3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC3" s="4" t="n"/>
     </row>
     <row r="4" ht="70" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -20085,7 +19911,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -20110,7 +19936,7 @@
         <is>
           <t>Elective (A)
 (Elective)
-DSAI-Sem3-POST
+ECE-Sem3-POST
 C403</t>
         </is>
       </c>
@@ -20147,24 +19973,13 @@
       <c r="AT4" s="4" t="n"/>
       <c r="AU4" s="4" t="n"/>
       <c r="AV4" s="4" t="n"/>
-      <c r="AW4" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-ECE-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AW4" s="4" t="n"/>
       <c r="AX4" s="4" t="n"/>
       <c r="AY4" s="4" t="n"/>
       <c r="AZ4" s="4" t="n"/>
       <c r="BA4" s="4" t="n"/>
       <c r="BB4" s="4" t="n"/>
-      <c r="BC4" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC4" s="4" t="n"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -20172,7 +19987,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -20223,14 +20038,7 @@
       <c r="AM5" s="4" t="n"/>
       <c r="AN5" s="4" t="n"/>
       <c r="AO5" s="4" t="n"/>
-      <c r="AP5" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-ECE-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AP5" s="4" t="n"/>
       <c r="AQ5" s="4" t="n"/>
       <c r="AR5" s="4" t="n"/>
       <c r="AS5" s="4" t="n"/>
@@ -20239,11 +20047,7 @@
       <c r="AV5" s="4" t="n"/>
       <c r="AW5" s="4" t="n"/>
       <c r="AX5" s="4" t="n"/>
-      <c r="AY5" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AY5" s="4" t="n"/>
       <c r="AZ5" s="4" t="n"/>
       <c r="BA5" s="4" t="n"/>
       <c r="BB5" s="4" t="n"/>
@@ -20255,7 +20059,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -20310,14 +20114,7 @@
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
       <c r="AS6" s="4" t="n"/>
-      <c r="AT6" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
       <c r="AW6" s="4" t="n"/>
@@ -20326,31 +20123,17 @@
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>
       <c r="BB6" s="4" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="8">
     <mergeCell ref="O4"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="AT6:BB6"/>
-    <mergeCell ref="AT2:BB2"/>
     <mergeCell ref="Y4"/>
-    <mergeCell ref="BC4"/>
-    <mergeCell ref="AY5"/>
-    <mergeCell ref="BC3"/>
     <mergeCell ref="S4:X4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="BC6"/>
-    <mergeCell ref="AP5:AX5"/>
     <mergeCell ref="K5"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="AT3:BB3"/>
-    <mergeCell ref="BC2"/>
-    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="B6:J6"/>
     <mergeCell ref="K6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20721,7 +20504,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="33" t="inlineStr">
+      <c r="L2" s="32" t="inlineStr">
         <is>
           <t>Computer Communication
 (Practical)
@@ -20793,7 +20576,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="33" t="inlineStr">
+      <c r="L3" s="32" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
@@ -20879,7 +20662,7 @@
       <c r="W4" s="4" t="n"/>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="23" t="inlineStr">
+      <c r="Z4" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -20933,7 +20716,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="33" t="inlineStr">
+      <c r="L5" s="32" t="inlineStr">
         <is>
           <t>Computer Communication
 (Lecture)
@@ -20958,7 +20741,7 @@
       <c r="W5" s="4" t="n"/>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="23" t="inlineStr">
+      <c r="Z5" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -21012,7 +20795,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="33" t="inlineStr">
+      <c r="L6" s="32" t="inlineStr">
         <is>
           <t>Computer Communication
 (Tutorial)
@@ -21449,7 +21232,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="34" t="inlineStr">
+      <c r="L2" s="33" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Practical)
@@ -21487,14 +21270,7 @@
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
@@ -21503,11 +21279,7 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="4" t="n"/>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -21532,7 +21304,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="34" t="inlineStr">
+      <c r="L3" s="33" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
@@ -21612,7 +21384,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="17" t="inlineStr">
+      <c r="I4" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -21698,7 +21470,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="34" t="inlineStr">
+      <c r="L5" s="33" t="inlineStr">
         <is>
           <t>Digital Signal Processing
 (Lecture)
@@ -21771,7 +21543,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="17" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -21816,14 +21588,7 @@
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
-      <c r="AJ6" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
@@ -21832,11 +21597,7 @@
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS6" s="4" t="n"/>
       <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
@@ -21849,27 +21610,23 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="16">
+    <mergeCell ref="O4"/>
+    <mergeCell ref="X2"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="AL3"/>
     <mergeCell ref="L5:T5"/>
     <mergeCell ref="AC5:AN5"/>
     <mergeCell ref="AL4"/>
     <mergeCell ref="U5"/>
+    <mergeCell ref="AO5"/>
     <mergeCell ref="L3:T3"/>
     <mergeCell ref="AC4:AK4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="AC3:AK3"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="L2:W2"/>
     <mergeCell ref="K6"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="X2"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="AV2"/>
-    <mergeCell ref="AS6"/>
-    <mergeCell ref="L2:W2"/>
-    <mergeCell ref="AM2:AU2"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="AL3"/>
-    <mergeCell ref="AO5"/>
-    <mergeCell ref="AC3:AK3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22320,7 +22077,7 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="20" t="inlineStr">
+      <c r="AF3" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -22369,7 +22126,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="35" t="inlineStr">
+      <c r="I4" s="34" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
@@ -22403,7 +22160,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="20" t="inlineStr">
+      <c r="AF4" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Practical)
@@ -22445,7 +22202,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="35" t="inlineStr">
+      <c r="B5" s="34" t="inlineStr">
         <is>
           <t>Data Handling
 (Practical)
@@ -22517,7 +22274,7 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="35" t="inlineStr">
+      <c r="B6" s="34" t="inlineStr">
         <is>
           <t>Data Handling
 (Lecture)
@@ -22545,7 +22302,7 @@
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="20" t="inlineStr">
+      <c r="S6" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -22967,7 +22724,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -23005,7 +22762,7 @@
       <c r="Z2" s="4" t="n"/>
       <c r="AA2" s="4" t="n"/>
       <c r="AB2" s="4" t="n"/>
-      <c r="AC2" s="37" t="inlineStr">
+      <c r="AC2" s="36" t="inlineStr">
         <is>
           <t>Signals &amp; Systems
 (Lecture)
@@ -23050,7 +22807,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="36" t="inlineStr">
+      <c r="B3" s="35" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Lecture)
@@ -23122,7 +22879,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="36" t="inlineStr">
+      <c r="B4" s="35" t="inlineStr">
         <is>
           <t>Multivariable Calculus
 (Tutorial)
@@ -23207,7 +22964,7 @@
       <c r="L5" s="4" t="n"/>
       <c r="M5" s="4" t="n"/>
       <c r="N5" s="4" t="n"/>
-      <c r="O5" s="37" t="inlineStr">
+      <c r="O5" s="36" t="inlineStr">
         <is>
           <t>Signals &amp; Systems
 (Tutorial)
@@ -23293,7 +23050,7 @@
       <c r="Z6" s="4" t="n"/>
       <c r="AA6" s="4" t="n"/>
       <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="37" t="inlineStr">
+      <c r="AC6" s="36" t="inlineStr">
         <is>
           <t>Signals &amp; Systems
 (Lecture)
@@ -23818,7 +23575,7 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="27" t="inlineStr">
+      <c r="AF3" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Tutorial)
@@ -23874,7 +23631,7 @@
       <c r="M4" s="4" t="n"/>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
-      <c r="P4" s="27" t="inlineStr">
+      <c r="P4" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Lecture)
@@ -24021,7 +23778,7 @@
       <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
       <c r="R6" s="4" t="n"/>
-      <c r="S6" s="27" t="inlineStr">
+      <c r="S6" s="26" t="inlineStr">
         <is>
           <t>Statistics for CS
 (Lecture)
@@ -24453,7 +24210,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="38" t="inlineStr">
+      <c r="L2" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Lecture)
@@ -24564,7 +24321,7 @@
       <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
-      <c r="AC3" s="38" t="inlineStr">
+      <c r="AC3" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Lecture)
@@ -24616,7 +24373,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="38" t="inlineStr">
+      <c r="I4" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Practical)
@@ -25929,7 +25686,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="23" t="inlineStr">
+      <c r="L2" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -25997,7 +25754,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="23" t="inlineStr">
+      <c r="L3" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -26126,7 +25883,7 @@
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
       <c r="K5" s="4" t="n"/>
-      <c r="L5" s="23" t="inlineStr">
+      <c r="L5" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -26194,7 +25951,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="23" t="inlineStr">
+      <c r="L6" s="22" t="inlineStr">
         <is>
           <t>Basket (C)
 (Basket)
@@ -26611,7 +26368,7 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -26683,7 +26440,7 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -26755,7 +26512,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -27320,7 +27077,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="20" t="inlineStr">
+      <c r="L2" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Practical)
@@ -27392,7 +27149,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="20" t="inlineStr">
+      <c r="L3" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -27454,7 +27211,7 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Basket (A)
 (Basket)
@@ -27597,7 +27354,7 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="20" t="inlineStr">
+      <c r="L6" s="19" t="inlineStr">
         <is>
           <t>Machine Learning
 (Lecture)
@@ -28032,7 +27789,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="38" t="inlineStr">
+      <c r="L2" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Lecture)
@@ -28070,14 +27827,7 @@
       <c r="AJ2" s="4" t="n"/>
       <c r="AK2" s="4" t="n"/>
       <c r="AL2" s="4" t="n"/>
-      <c r="AM2" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-ECE-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AM2" s="4" t="n"/>
       <c r="AN2" s="4" t="n"/>
       <c r="AO2" s="4" t="n"/>
       <c r="AP2" s="4" t="n"/>
@@ -28086,11 +27836,7 @@
       <c r="AS2" s="4" t="n"/>
       <c r="AT2" s="4" t="n"/>
       <c r="AU2" s="4" t="n"/>
-      <c r="AV2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AV2" s="4" t="n"/>
       <c r="AW2" s="4" t="n"/>
       <c r="AX2" s="4" t="n"/>
       <c r="AY2" s="4" t="n"/>
@@ -28115,7 +27861,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="38" t="inlineStr">
+      <c r="L3" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Lecture)
@@ -28184,7 +27930,7 @@
       <c r="F4" s="4" t="n"/>
       <c r="G4" s="4" t="n"/>
       <c r="H4" s="4" t="n"/>
-      <c r="I4" s="38" t="inlineStr">
+      <c r="I4" s="37" t="inlineStr">
         <is>
           <t>Software Design
 (Practical)
@@ -28398,14 +28144,7 @@
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
       <c r="AS6" s="4" t="n"/>
-      <c r="AT6" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-ECE-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
       <c r="AW6" s="4" t="n"/>
@@ -28414,31 +28153,23 @@
       <c r="AZ6" s="4" t="n"/>
       <c r="BA6" s="4" t="n"/>
       <c r="BB6" s="4" t="n"/>
-      <c r="BC6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="AM2:AU2"/>
+  <mergeCells count="14">
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="AI5"/>
     <mergeCell ref="U4"/>
-    <mergeCell ref="AT6:BB6"/>
     <mergeCell ref="AV4"/>
-    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="U3"/>
-    <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="AM4:AU4"/>
-    <mergeCell ref="AV2"/>
     <mergeCell ref="U2"/>
     <mergeCell ref="AM5:AU5"/>
-    <mergeCell ref="BC6"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="AV5"/>
-    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="I4:T4"/>
     <mergeCell ref="Z4:AH4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29889,21 +29620,10 @@
       <c r="AC6" s="4" t="n"/>
       <c r="AD6" s="4" t="n"/>
       <c r="AE6" s="4" t="n"/>
-      <c r="AF6" s="16" t="inlineStr">
-        <is>
-          <t>Elective (B)
-(Elective)
-DSAI-Sem3-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AF6" s="4" t="n"/>
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
-      <c r="AI6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AI6" s="4" t="n"/>
       <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
@@ -29926,16 +29646,14 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="AI5"/>
     <mergeCell ref="L6:T6"/>
-    <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI3"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="AI6"/>
     <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="Z6:AE6"/>
@@ -30482,7 +30200,7 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="17" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Basket (B)
 (Basket)
@@ -30977,7 +30695,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+CSE
+C403</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -30986,7 +30711,11 @@
       <c r="R2" s="4" t="n"/>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -31038,7 +30767,14 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>Elective (A)
+(Elective)
+CSE
+C403</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -31047,7 +30783,11 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="4" t="n"/>
+      <c r="U3" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -31062,14 +30802,7 @@
       <c r="AG3" s="4" t="n"/>
       <c r="AH3" s="4" t="n"/>
       <c r="AI3" s="4" t="n"/>
-      <c r="AJ3" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ3" s="4" t="n"/>
       <c r="AK3" s="4" t="n"/>
       <c r="AL3" s="4" t="n"/>
       <c r="AM3" s="4" t="n"/>
@@ -31078,11 +30811,7 @@
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
-      <c r="AS3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS3" s="4" t="n"/>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
@@ -31256,14 +30985,7 @@
       <c r="AG6" s="4" t="n"/>
       <c r="AH6" s="4" t="n"/>
       <c r="AI6" s="4" t="n"/>
-      <c r="AJ6" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-DSAI-Sem1-POST
-C403</t>
-        </is>
-      </c>
+      <c r="AJ6" s="4" t="n"/>
       <c r="AK6" s="4" t="n"/>
       <c r="AL6" s="4" t="n"/>
       <c r="AM6" s="4" t="n"/>
@@ -31272,11 +30994,7 @@
       <c r="AP6" s="4" t="n"/>
       <c r="AQ6" s="4" t="n"/>
       <c r="AR6" s="4" t="n"/>
-      <c r="AS6" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="AS6" s="4" t="n"/>
       <c r="AT6" s="4" t="n"/>
       <c r="AU6" s="4" t="n"/>
       <c r="AV6" s="4" t="n"/>
@@ -31290,10 +31008,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="AS6"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="AS3"/>
-    <mergeCell ref="AJ3:AR3"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="U3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31744,7 +31462,7 @@
       <c r="AC3" s="4" t="n"/>
       <c r="AD3" s="4" t="n"/>
       <c r="AE3" s="4" t="n"/>
-      <c r="AF3" s="18" t="inlineStr">
+      <c r="AF3" s="17" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)
@@ -31816,7 +31534,7 @@
       <c r="AC4" s="4" t="n"/>
       <c r="AD4" s="4" t="n"/>
       <c r="AE4" s="4" t="n"/>
-      <c r="AF4" s="18" t="inlineStr">
+      <c r="AF4" s="17" t="inlineStr">
         <is>
           <t>Happiness &amp; Wellbeing
 (Lecture)

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -102,8 +102,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBBEE4"/>
-        <bgColor rgb="00CBBEE4"/>
+        <fgColor rgb="00F0E6CC"/>
+        <bgColor rgb="00F0E6CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,188 +114,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEC3E8"/>
-        <bgColor rgb="00DEC3E8"/>
+        <fgColor rgb="00B7C9B4"/>
+        <bgColor rgb="00B7C9B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFDAD5"/>
-        <bgColor rgb="00DFDAD5"/>
+        <fgColor rgb="00D6F0DC"/>
+        <bgColor rgb="00D6F0DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCEABC"/>
-        <bgColor rgb="00DCEABC"/>
+        <fgColor rgb="00C8E8BF"/>
+        <bgColor rgb="00C8E8BF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9ECCA"/>
-        <bgColor rgb="00E9ECCA"/>
+        <fgColor rgb="00B8C6DE"/>
+        <bgColor rgb="00B8C6DE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4C1E4"/>
-        <bgColor rgb="00D4C1E4"/>
+        <fgColor rgb="00E3D9D8"/>
+        <bgColor rgb="00E3D9D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5E3C8"/>
-        <bgColor rgb="00B5E3C8"/>
+        <fgColor rgb="00C8CFC9"/>
+        <bgColor rgb="00C8CFC9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2C7BD"/>
-        <bgColor rgb="00E2C7BD"/>
+        <fgColor rgb="00E6D2EB"/>
+        <bgColor rgb="00E6D2EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E9B6"/>
-        <bgColor rgb="00E1E9B6"/>
+        <fgColor rgb="00BFC2E9"/>
+        <bgColor rgb="00BFC2E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFBBD7"/>
-        <bgColor rgb="00DFBBD7"/>
+        <fgColor rgb="00E9E9EE"/>
+        <bgColor rgb="00E9E9EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCC7C2"/>
-        <bgColor rgb="00BCC7C2"/>
+        <fgColor rgb="00EEEDED"/>
+        <bgColor rgb="00EEEDED"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4EEE1"/>
-        <bgColor rgb="00B4EEE1"/>
+        <fgColor rgb="00EAD4DC"/>
+        <bgColor rgb="00EAD4DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0C2C8"/>
-        <bgColor rgb="00F0C2C8"/>
+        <fgColor rgb="00CFD5B6"/>
+        <bgColor rgb="00CFD5B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4CFCF"/>
-        <bgColor rgb="00E4CFCF"/>
+        <fgColor rgb="00C7C0B8"/>
+        <bgColor rgb="00C7C0B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAE9BF"/>
-        <bgColor rgb="00CAE9BF"/>
+        <fgColor rgb="00D3BBE2"/>
+        <bgColor rgb="00D3BBE2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFEDCF"/>
-        <bgColor rgb="00CFEDCF"/>
+        <fgColor rgb="00C4EFC0"/>
+        <bgColor rgb="00C4EFC0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCD6D6"/>
-        <bgColor rgb="00CCD6D6"/>
+        <fgColor rgb="00E2CFB9"/>
+        <bgColor rgb="00E2CFB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3BFD1"/>
-        <bgColor rgb="00D3BFD1"/>
+        <fgColor rgb="00B9E7B9"/>
+        <bgColor rgb="00B9E7B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CEBDEA"/>
-        <bgColor rgb="00CEBDEA"/>
+        <fgColor rgb="00C3CAC4"/>
+        <bgColor rgb="00C3CAC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0ECBC"/>
-        <bgColor rgb="00C0ECBC"/>
+        <fgColor rgb="00DFC6E7"/>
+        <bgColor rgb="00DFC6E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BABDC1"/>
-        <bgColor rgb="00BABDC1"/>
+        <fgColor rgb="00B9E7C9"/>
+        <bgColor rgb="00B9E7C9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCF0CD"/>
-        <bgColor rgb="00CCF0CD"/>
+        <fgColor rgb="00E5E2D4"/>
+        <bgColor rgb="00E5E2D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0EBDB"/>
-        <bgColor rgb="00F0EBDB"/>
+        <fgColor rgb="00CFBEB7"/>
+        <bgColor rgb="00CFBEB7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DECDD8"/>
-        <bgColor rgb="00DECDD8"/>
+        <fgColor rgb="00C8C5E1"/>
+        <bgColor rgb="00C8C5E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCBBD2"/>
-        <bgColor rgb="00CCBBD2"/>
+        <fgColor rgb="00BFC3DA"/>
+        <bgColor rgb="00BFC3DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DED7B6"/>
-        <bgColor rgb="00DED7B6"/>
+        <fgColor rgb="00CFE5CB"/>
+        <bgColor rgb="00CFE5CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDD2D1"/>
-        <bgColor rgb="00CDD2D1"/>
+        <fgColor rgb="00D2E5BE"/>
+        <bgColor rgb="00D2E5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9C4D4"/>
-        <bgColor rgb="00E9C4D4"/>
+        <fgColor rgb="00D9D0D8"/>
+        <bgColor rgb="00D9D0D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4DDE8"/>
-        <bgColor rgb="00C4DDE8"/>
+        <fgColor rgb="00CCE9B4"/>
+        <bgColor rgb="00CCE9B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D7F0D9"/>
-        <bgColor rgb="00D7F0D9"/>
+        <fgColor rgb="00DDECCC"/>
+        <bgColor rgb="00DDECCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFEDBF"/>
-        <bgColor rgb="00CFEDBF"/>
+        <fgColor rgb="00DCB7E7"/>
+        <bgColor rgb="00DCB7E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8E5E2"/>
-        <bgColor rgb="00B8E5E2"/>
+        <fgColor rgb="00E2DCE0"/>
+        <bgColor rgb="00E2DCE0"/>
       </patternFill>
     </fill>
   </fills>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -102,8 +102,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F0E6CC"/>
-        <bgColor rgb="00F0E6CC"/>
+        <fgColor rgb="00E8B5C0"/>
+        <bgColor rgb="00E8B5C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,188 +114,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7C9B4"/>
-        <bgColor rgb="00B7C9B4"/>
+        <fgColor rgb="00E3C6E5"/>
+        <bgColor rgb="00E3C6E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6F0DC"/>
-        <bgColor rgb="00D6F0DC"/>
+        <fgColor rgb="00DAC0DB"/>
+        <bgColor rgb="00DAC0DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E8BF"/>
-        <bgColor rgb="00C8E8BF"/>
+        <fgColor rgb="00C1B9D3"/>
+        <bgColor rgb="00C1B9D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8C6DE"/>
-        <bgColor rgb="00B8C6DE"/>
+        <fgColor rgb="00EDCFC1"/>
+        <bgColor rgb="00EDCFC1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3D9D8"/>
-        <bgColor rgb="00E3D9D8"/>
+        <fgColor rgb="00C1B5EB"/>
+        <bgColor rgb="00C1B5EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8CFC9"/>
-        <bgColor rgb="00C8CFC9"/>
+        <fgColor rgb="00D2BED6"/>
+        <bgColor rgb="00D2BED6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6D2EB"/>
-        <bgColor rgb="00E6D2EB"/>
+        <fgColor rgb="00CCE4E9"/>
+        <bgColor rgb="00CCE4E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC2E9"/>
-        <bgColor rgb="00BFC2E9"/>
+        <fgColor rgb="00B5BECE"/>
+        <bgColor rgb="00B5BECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9E9EE"/>
-        <bgColor rgb="00E9E9EE"/>
+        <fgColor rgb="00E2B5C6"/>
+        <bgColor rgb="00E2B5C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EEEDED"/>
-        <bgColor rgb="00EEEDED"/>
+        <fgColor rgb="00B5C6B9"/>
+        <bgColor rgb="00B5C6B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD4DC"/>
-        <bgColor rgb="00EAD4DC"/>
+        <fgColor rgb="00CAB7B9"/>
+        <bgColor rgb="00CAB7B9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFD5B6"/>
-        <bgColor rgb="00CFD5B6"/>
+        <fgColor rgb="00C1C7DC"/>
+        <bgColor rgb="00C1C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7C0B8"/>
-        <bgColor rgb="00C7C0B8"/>
+        <fgColor rgb="00D4E4C0"/>
+        <bgColor rgb="00D4E4C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3BBE2"/>
-        <bgColor rgb="00D3BBE2"/>
+        <fgColor rgb="00BDCBE7"/>
+        <bgColor rgb="00BDCBE7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4EFC0"/>
-        <bgColor rgb="00C4EFC0"/>
+        <fgColor rgb="00E9B8D5"/>
+        <bgColor rgb="00E9B8D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2CFB9"/>
-        <bgColor rgb="00E2CFB9"/>
+        <fgColor rgb="00B7E6D9"/>
+        <bgColor rgb="00B7E6D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7B9"/>
-        <bgColor rgb="00B9E7B9"/>
+        <fgColor rgb="00DEEBC3"/>
+        <bgColor rgb="00DEEBC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3CAC4"/>
-        <bgColor rgb="00C3CAC4"/>
+        <fgColor rgb="00D9C7BC"/>
+        <bgColor rgb="00D9C7BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFC6E7"/>
-        <bgColor rgb="00DFC6E7"/>
+        <fgColor rgb="00E2BBDE"/>
+        <bgColor rgb="00E2BBDE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E7C9"/>
-        <bgColor rgb="00B9E7C9"/>
+        <fgColor rgb="00C0EBB8"/>
+        <bgColor rgb="00C0EBB8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5E2D4"/>
-        <bgColor rgb="00E5E2D4"/>
+        <fgColor rgb="00BBC0E0"/>
+        <bgColor rgb="00BBC0E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFBEB7"/>
-        <bgColor rgb="00CFBEB7"/>
+        <fgColor rgb="00DDC5D6"/>
+        <bgColor rgb="00DDC5D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8C5E1"/>
-        <bgColor rgb="00C8C5E1"/>
+        <fgColor rgb="00B6D3CD"/>
+        <bgColor rgb="00B6D3CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFC3DA"/>
-        <bgColor rgb="00BFC3DA"/>
+        <fgColor rgb="00C9DCD2"/>
+        <bgColor rgb="00C9DCD2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CB"/>
-        <bgColor rgb="00CFE5CB"/>
+        <fgColor rgb="00E0C0C5"/>
+        <bgColor rgb="00E0C0C5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2E5BE"/>
-        <bgColor rgb="00D2E5BE"/>
+        <fgColor rgb="00C4F0DA"/>
+        <bgColor rgb="00C4F0DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D0D8"/>
-        <bgColor rgb="00D9D0D8"/>
+        <fgColor rgb="00C7B8DC"/>
+        <bgColor rgb="00C7B8DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE9B4"/>
-        <bgColor rgb="00CCE9B4"/>
+        <fgColor rgb="00E1E6E3"/>
+        <bgColor rgb="00E1E6E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDECCC"/>
-        <bgColor rgb="00DDECCC"/>
+        <fgColor rgb="00CDE3DA"/>
+        <bgColor rgb="00CDE3DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCB7E7"/>
-        <bgColor rgb="00DCB7E7"/>
+        <fgColor rgb="00B6B6D0"/>
+        <bgColor rgb="00B6B6D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2DCE0"/>
-        <bgColor rgb="00E2DCE0"/>
+        <fgColor rgb="00EDE4E1"/>
+        <bgColor rgb="00EDE4E1"/>
       </patternFill>
     </fill>
   </fills>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -102,8 +102,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E8B5C0"/>
-        <bgColor rgb="00E8B5C0"/>
+        <fgColor rgb="00C1D2DE"/>
+        <bgColor rgb="00C1D2DE"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,188 +114,188 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3C6E5"/>
-        <bgColor rgb="00E3C6E5"/>
+        <fgColor rgb="00EED7C6"/>
+        <bgColor rgb="00EED7C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAC0DB"/>
-        <bgColor rgb="00DAC0DB"/>
+        <fgColor rgb="00E3D9B8"/>
+        <bgColor rgb="00E3D9B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B9D3"/>
-        <bgColor rgb="00C1B9D3"/>
+        <fgColor rgb="00D6E4E4"/>
+        <bgColor rgb="00D6E4E4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDCFC1"/>
-        <bgColor rgb="00EDCFC1"/>
+        <fgColor rgb="00E4B4B8"/>
+        <bgColor rgb="00E4B4B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1B5EB"/>
-        <bgColor rgb="00C1B5EB"/>
+        <fgColor rgb="00D0C9E9"/>
+        <bgColor rgb="00D0C9E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2BED6"/>
-        <bgColor rgb="00D2BED6"/>
+        <fgColor rgb="00CBC5E8"/>
+        <bgColor rgb="00CBC5E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE4E9"/>
-        <bgColor rgb="00CCE4E9"/>
+        <fgColor rgb="00BCB9F0"/>
+        <bgColor rgb="00BCB9F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5BECE"/>
-        <bgColor rgb="00B5BECE"/>
+        <fgColor rgb="00E5B4BE"/>
+        <bgColor rgb="00E5B4BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2B5C6"/>
-        <bgColor rgb="00E2B5C6"/>
+        <fgColor rgb="00D0DEDB"/>
+        <bgColor rgb="00D0DEDB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5C6B9"/>
-        <bgColor rgb="00B5C6B9"/>
+        <fgColor rgb="00B5B6DB"/>
+        <bgColor rgb="00B5B6DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CAB7B9"/>
-        <bgColor rgb="00CAB7B9"/>
+        <fgColor rgb="00F0C0C7"/>
+        <bgColor rgb="00F0C0C7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C1C7DC"/>
-        <bgColor rgb="00C1C7DC"/>
+        <fgColor rgb="00C2EFC5"/>
+        <bgColor rgb="00C2EFC5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4E4C0"/>
-        <bgColor rgb="00D4E4C0"/>
+        <fgColor rgb="00CDB5E6"/>
+        <bgColor rgb="00CDB5E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDCBE7"/>
-        <bgColor rgb="00BDCBE7"/>
+        <fgColor rgb="00CCD3E3"/>
+        <bgColor rgb="00CCD3E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E9B8D5"/>
-        <bgColor rgb="00E9B8D5"/>
+        <fgColor rgb="00BAECCC"/>
+        <bgColor rgb="00BAECCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7E6D9"/>
-        <bgColor rgb="00B7E6D9"/>
+        <fgColor rgb="00B9EFC4"/>
+        <bgColor rgb="00B9EFC4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEEBC3"/>
-        <bgColor rgb="00DEEBC3"/>
+        <fgColor rgb="00CED9EB"/>
+        <bgColor rgb="00CED9EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9C7BC"/>
-        <bgColor rgb="00D9C7BC"/>
+        <fgColor rgb="00CECEE4"/>
+        <bgColor rgb="00CECEE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2BBDE"/>
-        <bgColor rgb="00E2BBDE"/>
+        <fgColor rgb="00EBD4D3"/>
+        <bgColor rgb="00EBD4D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0EBB8"/>
-        <bgColor rgb="00C0EBB8"/>
+        <fgColor rgb="00E0CDBB"/>
+        <bgColor rgb="00E0CDBB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBC0E0"/>
-        <bgColor rgb="00BBC0E0"/>
+        <fgColor rgb="00BAC9BC"/>
+        <bgColor rgb="00BAC9BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC5D6"/>
-        <bgColor rgb="00DDC5D6"/>
+        <fgColor rgb="00B6BABF"/>
+        <bgColor rgb="00B6BABF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6D3CD"/>
-        <bgColor rgb="00B6D3CD"/>
+        <fgColor rgb="00C8D0C0"/>
+        <bgColor rgb="00C8D0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9DCD2"/>
-        <bgColor rgb="00C9DCD2"/>
+        <fgColor rgb="00C5C0BB"/>
+        <bgColor rgb="00C5C0BB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E0C0C5"/>
-        <bgColor rgb="00E0C0C5"/>
+        <fgColor rgb="00D3E8E8"/>
+        <bgColor rgb="00D3E8E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4F0DA"/>
-        <bgColor rgb="00C4F0DA"/>
+        <fgColor rgb="00BAD1E1"/>
+        <bgColor rgb="00BAD1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C7B8DC"/>
-        <bgColor rgb="00C7B8DC"/>
+        <fgColor rgb="00B9D2CF"/>
+        <bgColor rgb="00B9D2CF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E1E6E3"/>
-        <bgColor rgb="00E1E6E3"/>
+        <fgColor rgb="00C1EDBD"/>
+        <bgColor rgb="00C1EDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDE3DA"/>
-        <bgColor rgb="00CDE3DA"/>
+        <fgColor rgb="00E9B6C6"/>
+        <bgColor rgb="00E9B6C6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B6B6D0"/>
-        <bgColor rgb="00B6B6D0"/>
+        <fgColor rgb="00E7CCD5"/>
+        <bgColor rgb="00E7CCD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDE4E1"/>
-        <bgColor rgb="00EDE4E1"/>
+        <fgColor rgb="00B5EFD1"/>
+        <bgColor rgb="00B5EFD1"/>
       </patternFill>
     </fill>
   </fills>
@@ -6197,7 +6197,14 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Basket (D)
+(Basket)
+ECE-Sem7-PRE
+C403</t>
+        </is>
+      </c>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -6520,9 +6527,10 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="P4:X4"/>
     <mergeCell ref="L6:T6"/>
-    <mergeCell ref="P4:X4"/>
     <mergeCell ref="AB3"/>
     <mergeCell ref="Y4"/>
     <mergeCell ref="V3:AA3"/>
@@ -14817,14 +14825,7 @@
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="10" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-ECE-Sem7-PRE
-C004</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -14843,7 +14844,14 @@
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
-      <c r="AS3" s="4" t="n"/>
+      <c r="AS3" s="10" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+ECE-Sem7-PRE
+C004</t>
+        </is>
+      </c>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
@@ -15082,10 +15090,10 @@
   <mergeCells count="15">
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="AL5"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="K3"/>
-    <mergeCell ref="AL5"/>
+    <mergeCell ref="AS3:BA3"/>
     <mergeCell ref="L6:W6"/>
     <mergeCell ref="X6"/>
     <mergeCell ref="AC5:AK5"/>
@@ -17002,14 +17010,7 @@
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="10" t="inlineStr">
-        <is>
-          <t>Mini Project 2
-(Lecture)
-ECE-Sem7-PRE
-C004</t>
-        </is>
-      </c>
+      <c r="Z3" s="4" t="n"/>
       <c r="AA3" s="4" t="n"/>
       <c r="AB3" s="4" t="n"/>
       <c r="AC3" s="4" t="n"/>
@@ -17028,7 +17029,14 @@
       <c r="AP3" s="4" t="n"/>
       <c r="AQ3" s="4" t="n"/>
       <c r="AR3" s="4" t="n"/>
-      <c r="AS3" s="4" t="n"/>
+      <c r="AS3" s="10" t="inlineStr">
+        <is>
+          <t>Mini Project 2
+(Lecture)
+ECE-Sem7-PRE
+C004</t>
+        </is>
+      </c>
       <c r="AT3" s="4" t="n"/>
       <c r="AU3" s="4" t="n"/>
       <c r="AV3" s="4" t="n"/>
@@ -17232,9 +17240,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Z3:AH3"/>
     <mergeCell ref="Z2:AH2"/>
     <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="AS3:BA3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29317,14 +29325,7 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Basket (D)
-(Basket)
-ECE-Sem7-PRE
-C403</t>
-        </is>
-      </c>
+      <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
       <c r="N2" s="4" t="n"/>
       <c r="O2" s="4" t="n"/>
@@ -29396,7 +29397,14 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>Basket (D)
+(Basket)
+ECE-Sem7-PRE
+C403</t>
+        </is>
+      </c>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -29673,15 +29681,15 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="AI5"/>
     <mergeCell ref="Z2:AH2"/>
-    <mergeCell ref="AI5"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="AI3"/>
     <mergeCell ref="AI4"/>
     <mergeCell ref="Z5:AH5"/>
     <mergeCell ref="AI2"/>
     <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="L3:T3"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="Z4:AH4"/>
   </mergeCells>
@@ -30734,14 +30742,14 @@
       <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
+      <c r="R2" s="6" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
       <c r="S2" s="4" t="n"/>
       <c r="T2" s="4" t="n"/>
-      <c r="U2" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U2" s="4" t="n"/>
       <c r="V2" s="4" t="n"/>
       <c r="W2" s="4" t="n"/>
       <c r="X2" s="4" t="n"/>
@@ -30793,14 +30801,7 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>Elective (A)
-(Elective)
-CSE
-C403</t>
-        </is>
-      </c>
+      <c r="L3" s="4" t="n"/>
       <c r="M3" s="4" t="n"/>
       <c r="N3" s="4" t="n"/>
       <c r="O3" s="4" t="n"/>
@@ -30809,11 +30810,7 @@
       <c r="R3" s="4" t="n"/>
       <c r="S3" s="4" t="n"/>
       <c r="T3" s="4" t="n"/>
-      <c r="U3" s="6" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
+      <c r="U3" s="4" t="n"/>
       <c r="V3" s="4" t="n"/>
       <c r="W3" s="4" t="n"/>
       <c r="X3" s="4" t="n"/>
@@ -31033,11 +31030,9 @@
       <c r="BC6" s="4" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="U2"/>
-    <mergeCell ref="U3"/>
+  <mergeCells count="2">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="R2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -101,14 +101,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1D0C4"/>
-        <bgColor rgb="00D1D0C4"/>
+        <fgColor rgb="00C9B9BC"/>
+        <bgColor rgb="00C9B9BC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9BABB"/>
-        <bgColor rgb="00D9BABB"/>
+        <fgColor rgb="00CBC8EC"/>
+        <bgColor rgb="00CBC8EC"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,176 +119,176 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDDCE0"/>
-        <bgColor rgb="00CDDCE0"/>
+        <fgColor rgb="00C4D3E7"/>
+        <bgColor rgb="00C4D3E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6D7C3"/>
-        <bgColor rgb="00D6D7C3"/>
+        <fgColor rgb="00E6E5B4"/>
+        <bgColor rgb="00E6E5B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD3E6"/>
-        <bgColor rgb="00EAD3E6"/>
+        <fgColor rgb="00CFE0D0"/>
+        <bgColor rgb="00CFE0D0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDC7BF"/>
-        <bgColor rgb="00DDC7BF"/>
+        <fgColor rgb="00C0C8BE"/>
+        <bgColor rgb="00C0C8BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B5C7CB"/>
-        <bgColor rgb="00B5C7CB"/>
+        <fgColor rgb="00BCC2C2"/>
+        <bgColor rgb="00BCC2C2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCC6B8"/>
-        <bgColor rgb="00CCC6B8"/>
+        <fgColor rgb="00E4E1CC"/>
+        <bgColor rgb="00E4E1CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBCEEB"/>
-        <bgColor rgb="00CBCEEB"/>
+        <fgColor rgb="00CBBAEB"/>
+        <bgColor rgb="00CBBAEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5B9DE"/>
-        <bgColor rgb="00D5B9DE"/>
+        <fgColor rgb="00C2C3E8"/>
+        <bgColor rgb="00C2C3E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CDC5EE"/>
-        <bgColor rgb="00CDC5EE"/>
+        <fgColor rgb="00E6BBDC"/>
+        <bgColor rgb="00E6BBDC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D2CDCB"/>
-        <bgColor rgb="00D2CDCB"/>
+        <fgColor rgb="00BED5BE"/>
+        <bgColor rgb="00BED5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6CEBF"/>
-        <bgColor rgb="00D6CEBF"/>
+        <fgColor rgb="00E5B5C3"/>
+        <bgColor rgb="00E5B5C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9E9C1"/>
-        <bgColor rgb="00D9E9C1"/>
+        <fgColor rgb="00C8E4BA"/>
+        <bgColor rgb="00C8E4BA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4E3EB"/>
-        <bgColor rgb="00B4E3EB"/>
+        <fgColor rgb="00E3E9EB"/>
+        <bgColor rgb="00E3E9EB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0B8E1"/>
-        <bgColor rgb="00C0B8E1"/>
+        <fgColor rgb="00C3E8B7"/>
+        <bgColor rgb="00C3E8B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D3CED7"/>
-        <bgColor rgb="00D3CED7"/>
+        <fgColor rgb="00BCD1F0"/>
+        <bgColor rgb="00BCD1F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D1B7C7"/>
-        <bgColor rgb="00D1B7C7"/>
+        <fgColor rgb="00BDC1E2"/>
+        <bgColor rgb="00BDC1E2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4E4D2"/>
-        <bgColor rgb="00E4E4D2"/>
+        <fgColor rgb="00EED4E3"/>
+        <bgColor rgb="00EED4E3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B9E9E2"/>
-        <bgColor rgb="00B9E9E2"/>
+        <fgColor rgb="00BEC2D8"/>
+        <bgColor rgb="00BEC2D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0D1D8"/>
-        <bgColor rgb="00C0D1D8"/>
+        <fgColor rgb="00C2C2E6"/>
+        <bgColor rgb="00C2C2E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E2C2CB"/>
-        <bgColor rgb="00E2C2CB"/>
+        <fgColor rgb="00BEBEE1"/>
+        <bgColor rgb="00BEBEE1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BFD3D2"/>
-        <bgColor rgb="00BFD3D2"/>
+        <fgColor rgb="00E6E8D6"/>
+        <bgColor rgb="00E6E8D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBE4DD"/>
-        <bgColor rgb="00CBE4DD"/>
+        <fgColor rgb="00E6CBCA"/>
+        <bgColor rgb="00E6CBCA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFB8D2"/>
-        <bgColor rgb="00CFB8D2"/>
+        <fgColor rgb="00D8E1D4"/>
+        <bgColor rgb="00D8E1D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EDC3B6"/>
-        <bgColor rgb="00EDC3B6"/>
+        <fgColor rgb="00DFEDCD"/>
+        <bgColor rgb="00DFEDCD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9C8BB"/>
-        <bgColor rgb="00D9C8BB"/>
+        <fgColor rgb="00BBD7CA"/>
+        <bgColor rgb="00BBD7CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8EFD0"/>
-        <bgColor rgb="00B8EFD0"/>
+        <fgColor rgb="00D4CDD6"/>
+        <bgColor rgb="00D4CDD6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E1C9"/>
-        <bgColor rgb="00D5E1C9"/>
+        <fgColor rgb="00B4EFE8"/>
+        <bgColor rgb="00B4EFE8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6E1E2"/>
-        <bgColor rgb="00D6E1E2"/>
+        <fgColor rgb="00D4EECF"/>
+        <bgColor rgb="00D4EECF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFB5D2"/>
-        <bgColor rgb="00CFB5D2"/>
+        <fgColor rgb="00C2CCCD"/>
+        <bgColor rgb="00C2CCCD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1166,7 +1166,7 @@
           <t>Basket (D)
 (Basket)
 CSE-Sem7-PRE-B
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="AA2" s="4" t="n"/>
@@ -1231,7 +1231,7 @@
           <t>Basket (D)
 (Basket)
 CSE-Sem7-PRE-B
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -1265,7 +1265,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem3-POST-B
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AN3" s="4" t="n"/>
@@ -1310,7 +1310,7 @@
           <t>Introduction to DSAI
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M4" s="4" t="n"/>
@@ -1338,7 +1338,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem3-POST-B
-C202</t>
+C302</t>
         </is>
       </c>
       <c r="AD4" s="4" t="n"/>
@@ -1349,7 +1349,7 @@
           <t>Basket (D)
 (Basket)
 CSE-Sem7-PRE-B
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="AH4" s="4" t="n"/>
@@ -1396,7 +1396,7 @@
           <t>Introduction to DSAI
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -1452,7 +1452,7 @@
           <t>Basket (D)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AU5" s="4" t="n"/>
@@ -1486,7 +1486,7 @@
           <t>Introduction to DSAI
 (Tutorial)
 DSAI-Sem1-POST
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -1531,7 +1531,7 @@
           <t>Basket (D)
 (Basket)
 DSAI-Sem7-PRE
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AU6" s="4" t="n"/>
@@ -2026,7 +2026,7 @@
           <t>Machine Learning
 (Lecture)
 ECE-Sem3-POST
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AN3" s="4" t="n"/>
@@ -2098,7 +2098,7 @@
           <t>Machine Learning
 (Lecture)
 ECE-Sem3-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN4" s="4" t="n"/>
@@ -2231,7 +2231,7 @@
           <t>Machine Learning
 (Tutorial)
 ECE-Sem3-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AN6" s="4" t="n"/>
@@ -2739,7 +2739,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem5-POST-B
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ3" s="4" t="n"/>
@@ -2771,7 +2771,7 @@
           <t>Basket (A)
 (Basket)
 CSE-Sem7-PRE-B
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -2818,7 +2818,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem5-POST-B
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ4" s="4" t="n"/>
@@ -2850,7 +2850,7 @@
           <t>Basket (A)
 (Basket)
 CSE-Sem7-PRE-B
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -2881,7 +2881,7 @@
           <t>Basket (A)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA5" s="4" t="n"/>
@@ -2904,7 +2904,7 @@
           <t>Computer Networks
 (Tutorial)
 CSE-Sem5-POST-B
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n"/>
@@ -2936,7 +2936,7 @@
           <t>Basket (A)
 (Basket)
 CSE-Sem7-PRE-B
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -4067,7 +4067,7 @@
           <t>Introduction to DSAI
 (Lecture)
 ECE-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -4139,7 +4139,7 @@
           <t>Introduction to DSAI
 (Lecture)
 ECE-Sem1-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -4344,7 +4344,7 @@
           <t>Introduction to DSAI
 (Tutorial)
 ECE-Sem1-POST
-C404</t>
+C104</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -4779,7 +4779,7 @@
           <t>Basket (C)
 (Basket)
 CSE
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -4973,7 +4973,7 @@
           <t>Basket (C)
 (Basket)
 CSE
-C402</t>
+C408</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -5045,7 +5045,7 @@
           <t>Basket (C)
 (Basket)
 CSE
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -5549,7 +5549,7 @@
           <t>Introduction to VLSI Design
 (Tutorial)
 ECE-Sem5-POST
-C404</t>
+C203</t>
         </is>
       </c>
       <c r="W3" s="4" t="n"/>
@@ -5702,7 +5702,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 ECE-Sem5-POST
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n"/>
@@ -5771,7 +5771,7 @@
           <t>Introduction to VLSI Design
 (Lecture)
 ECE-Sem5-POST
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AN6" s="4" t="n"/>
@@ -6187,7 +6187,7 @@
           <t>Introduction to Algorithms
 (Tutorial)
 ECE-Sem5-POST
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="W2" s="4" t="n"/>
@@ -6921,7 +6921,7 @@
           <t>Artificial Intelligence
 (Tutorial)
 CSE-Sem5-POST-A
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="W3" s="4" t="n"/>
@@ -7540,7 +7540,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 CSE-Sem3-POST-A
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AD2" s="4" t="n"/>
@@ -7717,7 +7717,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 CSE-Sem3-POST-A
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -8500,7 +8500,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AU6" s="4" t="n"/>
@@ -9752,7 +9752,7 @@
           <t>Problem Solving with Python
 (Lecture)
 ECE-Sem1-POST
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -9889,7 +9889,7 @@
           <t>Problem Solving with Python
 (Lecture)
 ECE-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -10451,7 +10451,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -10485,7 +10485,7 @@
           <t>Basket (B)
 (Basket)
 ECE
-C407</t>
+C303</t>
         </is>
       </c>
       <c r="AG4" s="4" t="n"/>
@@ -10527,7 +10527,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -10555,7 +10555,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -10579,7 +10579,7 @@
           <t>Basket (B)
 (Basket)
 ECE
-C404</t>
+C203</t>
         </is>
       </c>
       <c r="AG5" s="4" t="n"/>
@@ -10621,7 +10621,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -10662,7 +10662,7 @@
           <t>Basket (B)
 (Basket)
 ECE
-C406</t>
+C204</t>
         </is>
       </c>
       <c r="AG6" s="4" t="n"/>
@@ -11100,7 +11100,7 @@
           <t>Elective (A)
 (Elective)
 DSAI-Sem3-POST
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD2" s="4" t="n"/>
@@ -11206,7 +11206,7 @@
           <t>Semiconductor Devices
 (Lecture)
 ECE-Sem3-POST
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -11231,7 +11231,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="Q4" s="4" t="n"/>
@@ -11317,7 +11317,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C408</t>
+C303</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -11372,7 +11372,7 @@
           <t>Semiconductor Devices
 (Lecture)
 ECE-Sem3-POST
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -11410,7 +11410,7 @@
           <t>Elective (A)
 (Elective)
 DSAI-Sem3-POST
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD6" s="4" t="n"/>
@@ -11824,7 +11824,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -11896,7 +11896,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -11927,7 +11927,7 @@
           <t>Statistics for CS
 (Tutorial)
 CSE-Sem5-POST-B
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="W3" s="4" t="n"/>
@@ -11979,7 +11979,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -12061,7 +12061,7 @@
           <t>Basket (A)
 (Basket)
 DSAI
-C407</t>
+C303</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -12160,7 +12160,7 @@
           <t>Statistics for CS
 (Lecture)
 CSE-Sem5-POST-B
-C202</t>
+C203</t>
         </is>
       </c>
       <c r="AN6" s="4" t="n"/>
@@ -12633,7 +12633,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem3-POST-A
-C202</t>
+C205</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -12661,7 +12661,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem3-POST-B
-C104</t>
+C203</t>
         </is>
       </c>
       <c r="AD3" s="4" t="n"/>
@@ -12733,7 +12733,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem3-POST-A
-C104</t>
+C204</t>
         </is>
       </c>
       <c r="AD4" s="4" t="n"/>
@@ -12877,7 +12877,7 @@
           <t>Computer Networks
 (Tutorial)
 CSE-Sem3-POST-A
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD6" s="4" t="n"/>
@@ -13522,7 +13522,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C407</t>
+C302</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -14012,7 +14012,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -14050,7 +14050,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 CSE-Sem3-POST-B
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD2" s="4" t="n"/>
@@ -14102,7 +14102,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -14143,7 +14143,7 @@
           <t>Basket (A)
 (Basket)
 ECE
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AG3" s="4" t="n"/>
@@ -14192,7 +14192,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -14281,7 +14281,7 @@
           <t>Basket (A)
 (Basket)
 DSAI
-C406</t>
+C302</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -14309,7 +14309,7 @@
           <t>Design &amp; Analysis of Algorithms
 (Lecture)
 CSE-Sem3-POST-B
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AD5" s="4" t="n"/>
@@ -14885,7 +14885,7 @@
           <t>Basket (A)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AA3" s="4" t="n"/>
@@ -14936,7 +14936,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -15001,7 +15001,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -15029,7 +15029,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C104</t>
+C304</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -15084,7 +15084,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -15119,7 +15119,7 @@
           <t>Basket (A)
 (Basket)
 DSAI-Sem7-PRE
-C406</t>
+C204</t>
         </is>
       </c>
       <c r="AA6" s="4" t="n"/>
@@ -15528,7 +15528,7 @@
           <t>Basket (B)
 (Basket)
 CSE-Sem7-PRE-B
-C407</t>
+C204</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -15577,7 +15577,7 @@
           <t>Basket (B)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AH2" s="4" t="n"/>
@@ -15593,7 +15593,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AQ2" s="4" t="n"/>
@@ -15625,7 +15625,7 @@
           <t>Basket (B)
 (Basket)
 CSE-Sem7-PRE-B
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -15667,7 +15667,7 @@
           <t>Basket (B)
 (Basket)
 DSAI-Sem7-PRE
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AH3" s="4" t="n"/>
@@ -15805,7 +15805,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n"/>
@@ -15847,7 +15847,7 @@
           <t>Analog Electronics
 (Lecture)
 ECE-Sem3-POST
-C406</t>
+C203</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -16287,7 +16287,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem1-POST-A
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -16467,7 +16467,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem1-POST-B
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -17821,7 +17821,7 @@
           <t>Statistics
 (Tutorial)
 DSAI-Sem1-POST
-C403</t>
+C104</t>
         </is>
       </c>
       <c r="P3" s="4" t="n"/>
@@ -17952,7 +17952,7 @@
           <t>Statistics
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -18024,7 +18024,7 @@
           <t>Statistics
 (Lecture)
 DSAI-Sem1-POST
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -18609,7 +18609,7 @@
           <t>Elective (A)
 (Elective)
 DSAI-Sem1-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -18742,7 +18742,7 @@
           <t>Elective (A)
 (Elective)
 DSAI-Sem1-POST
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA6" s="4" t="n"/>
@@ -19278,7 +19278,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C101</t>
+C205</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -19299,7 +19299,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C404</t>
+C102</t>
         </is>
       </c>
       <c r="T4" s="4" t="n"/>
@@ -19354,7 +19354,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C406</t>
+C202</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -19382,7 +19382,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -19437,7 +19437,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C101</t>
+C205</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -19884,7 +19884,7 @@
           <t>Basket (C)
 (Basket)
 CSE-Sem7-PRE-B
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -19993,7 +19993,7 @@
           <t>Computer Communication
 (Lecture)
 DSAI-Sem5-POST
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ3" s="4" t="n"/>
@@ -20065,7 +20065,7 @@
           <t>Computer Communication
 (Lecture)
 DSAI-Sem5-POST
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ4" s="4" t="n"/>
@@ -20107,7 +20107,7 @@
           <t>Basket (C)
 (Basket)
 CSE-Sem7-PRE-B
-C302</t>
+C404</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -20144,7 +20144,7 @@
           <t>Computer Communication
 (Tutorial)
 DSAI-Sem5-POST
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n"/>
@@ -20186,7 +20186,7 @@
           <t>Basket (C)
 (Basket)
 CSE-Sem7-PRE-B
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -20217,7 +20217,7 @@
           <t>Basket (C)
 (Basket)
 DSAI-Sem7-PRE
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="AK6" s="4" t="n"/>
@@ -20717,7 +20717,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD3" s="4" t="n"/>
@@ -20741,7 +20741,7 @@
           <t>Digital Signal Processing
 (Lecture)
 ECE-Sem5-POST
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ3" s="4" t="n"/>
@@ -20780,7 +20780,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C102</t>
+C302</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -20811,7 +20811,7 @@
           <t>Elective (A)
 (Elective)
 ECE-Sem3-POST
-C405</t>
+C203</t>
         </is>
       </c>
       <c r="AD4" s="4" t="n"/>
@@ -20835,7 +20835,7 @@
           <t>Digital Signal Processing
 (Lecture)
 ECE-Sem5-POST
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AQ4" s="4" t="n"/>
@@ -20867,7 +20867,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C5" s="4" t="n"/>
@@ -20895,7 +20895,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C204</t>
+C402</t>
         </is>
       </c>
       <c r="T5" s="4" t="n"/>
@@ -20961,7 +20961,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C102</t>
+C302</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -21537,7 +21537,7 @@
           <t>Data Handling
 (Lecture)
 DSAI-Sem3-POST
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="J4" s="4" t="n"/>
@@ -21674,7 +21674,7 @@
           <t>Data Handling
 (Lecture)
 DSAI-Sem3-POST
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C6" s="4" t="n"/>
@@ -22158,7 +22158,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 ECE-Sem3-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD2" s="4" t="n"/>
@@ -22360,7 +22360,7 @@
           <t>Signals &amp; Systems
 (Tutorial)
 ECE-Sem3-POST
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="P5" s="4" t="n"/>
@@ -22446,7 +22446,7 @@
           <t>Signals &amp; Systems
 (Lecture)
 ECE-Sem3-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AD6" s="4" t="n"/>
@@ -23183,7 +23183,7 @@
           <t>Statistics for CS
 (Lecture)
 CSE-Sem5-POST-A
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AN6" s="4" t="n"/>
@@ -23593,7 +23593,7 @@
           <t>Software Design
 (Lecture)
 CSE-Sem3-POST-A
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -23704,7 +23704,7 @@
           <t>Software Design
 (Lecture)
 CSE-Sem3-POST-A
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD3" s="4" t="n"/>
@@ -23859,7 +23859,7 @@
           <t>Software Design
 (Tutorial)
 CSE-Sem3-POST-A
-C102</t>
+C104</t>
         </is>
       </c>
       <c r="AD5" s="4" t="n"/>
@@ -24551,7 +24551,7 @@
           <t>Basket (C)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AK5" s="4" t="n"/>
@@ -25090,7 +25090,7 @@
           <t>Artificial Intelligence
 (Tutorial)
 DSAI-Sem3-POST
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="AD3" s="4" t="n"/>
@@ -25162,7 +25162,7 @@
           <t>Artificial Intelligence
 (Lecture)
 DSAI-Sem3-POST
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AD4" s="4" t="n"/>
@@ -25220,7 +25220,7 @@
           <t>Artificial Intelligence
 (Lecture)
 DSAI-Sem3-POST
-C404</t>
+C204</t>
         </is>
       </c>
       <c r="P5" s="4" t="n"/>
@@ -25265,7 +25265,7 @@
           <t>Algorithms and Data Structures
 (Tutorial)
 DSAI-Sem5-POST
-C404</t>
+C202</t>
         </is>
       </c>
       <c r="AX5" s="4" t="n"/>
@@ -25714,7 +25714,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -25786,7 +25786,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -25858,7 +25858,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C408</t>
+C204</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -25940,7 +25940,7 @@
           <t>Basket (A)
 (Basket)
 DSAI
-C203</t>
+C305</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -26508,7 +26508,7 @@
           <t>Machine Learning
 (Lecture)
 DSAI-Sem3-POST
-C405</t>
+C204</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -26570,7 +26570,7 @@
           <t>Basket (A)
 (Basket)
 CSE
-C407</t>
+C203</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -26652,7 +26652,7 @@
           <t>Basket (A)
 (Basket)
 DSAI
-C408</t>
+C304</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -26724,7 +26724,7 @@
           <t>Machine Learning
 (Lecture)
 DSAI-Sem3-POST
-C405</t>
+C202</t>
         </is>
       </c>
       <c r="M6" s="4" t="n"/>
@@ -27161,7 +27161,7 @@
           <t>Software Design
 (Lecture)
 CSE-Sem3-POST-B
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -27233,7 +27233,7 @@
           <t>Software Design
 (Lecture)
 CSE-Sem3-POST-B
-C104</t>
+C203</t>
         </is>
       </c>
       <c r="M3" s="4" t="n"/>
@@ -27330,7 +27330,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem1-POST-A
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -27399,7 +27399,7 @@
           <t>Software Design
 (Tutorial)
 CSE-Sem3-POST-B
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="M5" s="4" t="n"/>
@@ -27424,7 +27424,7 @@
           <t>Elective (A)
 (Elective)
 CSE-Sem1-POST-A
-C101</t>
+C102</t>
         </is>
       </c>
       <c r="AA5" s="4" t="n"/>
@@ -27998,7 +27998,7 @@
           <t>Problem Solving with Python
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -28049,7 +28049,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem5-POST-A
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ3" s="4" t="n"/>
@@ -28081,7 +28081,7 @@
           <t>Problem Solving with Python
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="C4" s="4" t="n"/>
@@ -28132,7 +28132,7 @@
           <t>Computer Networks
 (Lecture)
 CSE-Sem5-POST-A
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ4" s="4" t="n"/>
@@ -28204,7 +28204,7 @@
           <t>Computer Networks
 (Tutorial)
 CSE-Sem5-POST-A
-C104</t>
+C202</t>
         </is>
       </c>
       <c r="AQ5" s="4" t="n"/>
@@ -28690,7 +28690,7 @@
           <t>Economics/IET
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA2" s="4" t="n"/>
@@ -28762,7 +28762,7 @@
           <t>Economics/IET
 (Lecture)
 DSAI-Sem1-POST
-C403</t>
+C102</t>
         </is>
       </c>
       <c r="AA3" s="4" t="n"/>
@@ -28834,7 +28834,7 @@
           <t>Economics/IET
 (Lecture)
 ECE-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -28906,7 +28906,7 @@
           <t>Economics/IET
 (Lecture)
 ECE-Sem1-POST
-C403</t>
+C101</t>
         </is>
       </c>
       <c r="AA5" s="4" t="n"/>
@@ -29378,7 +29378,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C408</t>
+C205</t>
         </is>
       </c>
       <c r="C2" s="4" t="n"/>
@@ -29420,7 +29420,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C407</t>
+C205</t>
         </is>
       </c>
       <c r="AH2" s="4" t="n"/>
@@ -29461,7 +29461,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C102</t>
+C302</t>
         </is>
       </c>
       <c r="C3" s="4" t="n"/>
@@ -29503,7 +29503,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="AH3" s="4" t="n"/>
@@ -29568,7 +29568,7 @@
           <t>Basket (B)
 (Basket)
 CSE
-C202</t>
+C304</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -29596,7 +29596,7 @@
           <t>Basket (B)
 (Basket)
 DSAI
-C408</t>
+C304</t>
         </is>
       </c>
       <c r="AR4" s="4" t="n"/>
@@ -30126,7 +30126,7 @@
           <t>Elective (A)
 (Elective)
 CSE
-C405</t>
+C104</t>
         </is>
       </c>
       <c r="M2" s="4" t="n"/>
@@ -30968,7 +30968,7 @@
           <t>Basket (B)
 (Basket)
 CSE-Sem7-PRE-B
-C406</t>
+C205</t>
         </is>
       </c>
       <c r="AA4" s="4" t="n"/>
@@ -30992,7 +30992,7 @@
           <t>Basket (B)
 (Basket)
 DSAI-Sem7-PRE
-C405</t>
+C205</t>
         </is>
       </c>
       <c r="AR4" s="4" t="n"/>

--- a/output/Faculty_Timetables.xlsx
+++ b/output/Faculty_Timetables.xlsx
@@ -101,14 +101,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C9B9BC"/>
-        <bgColor rgb="00C9B9BC"/>
+        <fgColor rgb="00BAE2B8"/>
+        <bgColor rgb="00BAE2B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBC8EC"/>
-        <bgColor rgb="00CBC8EC"/>
+        <fgColor rgb="00CBEFE5"/>
+        <bgColor rgb="00CBEFE5"/>
       </patternFill>
     </fill>
     <fill>
@@ -119,176 +119,176 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C4D3E7"/>
-        <bgColor rgb="00C4D3E7"/>
+        <fgColor rgb="00BECBDE"/>
+        <bgColor rgb="00BECBDE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E5B4"/>
-        <bgColor rgb="00E6E5B4"/>
+        <fgColor rgb="00EFEBE4"/>
+        <bgColor rgb="00EFEBE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFE0D0"/>
-        <bgColor rgb="00CFE0D0"/>
+        <fgColor rgb="00D1E6D4"/>
+        <bgColor rgb="00D1E6D4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C0C8BE"/>
-        <bgColor rgb="00C0C8BE"/>
+        <fgColor rgb="00C8CAB4"/>
+        <bgColor rgb="00C8CAB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCC2C2"/>
-        <bgColor rgb="00BCC2C2"/>
+        <fgColor rgb="00CDC1DC"/>
+        <bgColor rgb="00CDC1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E4E1CC"/>
-        <bgColor rgb="00E4E1CC"/>
+        <fgColor rgb="00B4BFDF"/>
+        <bgColor rgb="00B4BFDF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CBBAEB"/>
-        <bgColor rgb="00CBBAEB"/>
+        <fgColor rgb="00DDDCC6"/>
+        <bgColor rgb="00DDDCC6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2C3E8"/>
-        <bgColor rgb="00C2C3E8"/>
+        <fgColor rgb="00BACACC"/>
+        <bgColor rgb="00BACACC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6BBDC"/>
-        <bgColor rgb="00E6BBDC"/>
+        <fgColor rgb="00DAE8CA"/>
+        <bgColor rgb="00DAE8CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BED5BE"/>
-        <bgColor rgb="00BED5BE"/>
+        <fgColor rgb="00E5C6D2"/>
+        <bgColor rgb="00E5C6D2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E5B5C3"/>
-        <bgColor rgb="00E5B5C3"/>
+        <fgColor rgb="00C4EFBF"/>
+        <bgColor rgb="00C4EFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C8E4BA"/>
-        <bgColor rgb="00C8E4BA"/>
+        <fgColor rgb="00E5EFBE"/>
+        <bgColor rgb="00E5EFBE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E3E9EB"/>
-        <bgColor rgb="00E3E9EB"/>
+        <fgColor rgb="00C5BCEB"/>
+        <bgColor rgb="00C5BCEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C3E8B7"/>
-        <bgColor rgb="00C3E8B7"/>
+        <fgColor rgb="00BBB7D8"/>
+        <bgColor rgb="00BBB7D8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BCD1F0"/>
-        <bgColor rgb="00BCD1F0"/>
+        <fgColor rgb="00B8D7EA"/>
+        <bgColor rgb="00B8D7EA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDC1E2"/>
-        <bgColor rgb="00BDC1E2"/>
+        <fgColor rgb="00D8DCBC"/>
+        <bgColor rgb="00D8DCBC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EED4E3"/>
-        <bgColor rgb="00EED4E3"/>
+        <fgColor rgb="00DDE0EF"/>
+        <bgColor rgb="00DDE0EF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BEC2D8"/>
-        <bgColor rgb="00BEC2D8"/>
+        <fgColor rgb="00F0E6D5"/>
+        <bgColor rgb="00F0E6D5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2C2E6"/>
-        <bgColor rgb="00C2C2E6"/>
+        <fgColor rgb="00C7D8E5"/>
+        <bgColor rgb="00C7D8E5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BEBEE1"/>
-        <bgColor rgb="00BEBEE1"/>
+        <fgColor rgb="00CAC7F0"/>
+        <bgColor rgb="00CAC7F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E8D6"/>
-        <bgColor rgb="00E6E8D6"/>
+        <fgColor rgb="00DFDDB9"/>
+        <bgColor rgb="00DFDDB9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6CBCA"/>
-        <bgColor rgb="00E6CBCA"/>
+        <fgColor rgb="00DDEFBA"/>
+        <bgColor rgb="00DDEFBA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D8E1D4"/>
-        <bgColor rgb="00D8E1D4"/>
+        <fgColor rgb="00CDD1E1"/>
+        <bgColor rgb="00CDD1E1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DFEDCD"/>
-        <bgColor rgb="00DFEDCD"/>
+        <fgColor rgb="00DEE5BE"/>
+        <bgColor rgb="00DEE5BE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBD7CA"/>
-        <bgColor rgb="00BBD7CA"/>
+        <fgColor rgb="00E9C8C3"/>
+        <bgColor rgb="00E9C8C3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4CDD6"/>
-        <bgColor rgb="00D4CDD6"/>
+        <fgColor rgb="00DAD1E9"/>
+        <bgColor rgb="00DAD1E9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B4EFE8"/>
-        <bgColor rgb="00B4EFE8"/>
+        <fgColor rgb="00EBDBE9"/>
+        <bgColor rgb="00EBDBE9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EECF"/>
-        <bgColor rgb="00D4EECF"/>
+        <fgColor rgb="00D6BFD8"/>
+        <bgColor rgb="00D6BFD8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C2CCCD"/>
-        <bgColor rgb="00C2CCCD"/>
+        <fgColor rgb="00E1DDC4"/>
+        <bgColor rgb="00E1DDC4"/>
       </patternFill>
     </fill>
   </fills>
